--- a/PRO1/step_3/results/res_line/i_ka.xlsx
+++ b/PRO1/step_3/results/res_line/i_ka.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0355043521817418</v>
+        <v>0.03740507779290062</v>
       </c>
       <c r="C2">
-        <v>0.03593204739604658</v>
+        <v>0.03781346804533573</v>
       </c>
       <c r="D2">
-        <v>0.01404634906632487</v>
+        <v>0.01461719293034961</v>
       </c>
       <c r="E2">
-        <v>0.01050534968569431</v>
+        <v>0.01107400627701278</v>
       </c>
       <c r="F2">
-        <v>0.004547795184677009</v>
+        <v>0.004550903064679672</v>
       </c>
       <c r="G2">
-        <v>0.0008211338539075167</v>
+        <v>0.0008208626513927403</v>
       </c>
       <c r="H2">
-        <v>0.01243462735212453</v>
+        <v>0.01262337159613168</v>
       </c>
       <c r="I2">
-        <v>0.007289458089890764</v>
+        <v>0.007480030999614096</v>
       </c>
       <c r="J2">
-        <v>0.002751634426830648</v>
+        <v>0.002941101867588774</v>
       </c>
       <c r="K2">
-        <v>0.01777214181568774</v>
+        <v>0.01870364547665599</v>
       </c>
       <c r="L2">
-        <v>0.005070711050116914</v>
+        <v>0.005588643090870801</v>
       </c>
       <c r="M2">
-        <v>0.004755254709870565</v>
+        <v>0.004755846914983547</v>
       </c>
       <c r="N2">
-        <v>0.0001326257953967052</v>
+        <v>0.0001325363468324938</v>
       </c>
       <c r="O2">
-        <v>0.0002705650056210554</v>
+        <v>0.0002703723918623107</v>
       </c>
       <c r="P2">
-        <v>7.476893230069664E-05</v>
+        <v>7.475974269059109E-05</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03411643516497479</v>
+        <v>0.03525489730781707</v>
       </c>
       <c r="C3">
-        <v>0.03452875440131051</v>
+        <v>0.03565530559180635</v>
       </c>
       <c r="D3">
-        <v>0.01350246922671503</v>
+        <v>0.01388174058987455</v>
       </c>
       <c r="E3">
-        <v>0.01009896875120916</v>
+        <v>0.01047699151549661</v>
       </c>
       <c r="F3">
-        <v>0.004372431914148382</v>
+        <v>0.004374219331176665</v>
       </c>
       <c r="G3">
-        <v>0.0008139439765755657</v>
+        <v>0.0008137642466799011</v>
       </c>
       <c r="H3">
-        <v>0.01194863059215038</v>
+        <v>0.01195367456742189</v>
       </c>
       <c r="I3">
-        <v>0.007008077511879002</v>
+        <v>0.007010963222459935</v>
       </c>
       <c r="J3">
-        <v>0.002646461632461725</v>
+        <v>0.002647529552882961</v>
       </c>
       <c r="K3">
-        <v>0.01707513167305976</v>
+        <v>0.01744913616912539</v>
       </c>
       <c r="L3">
-        <v>0.004878578457714776</v>
+        <v>0.005222939832484564</v>
       </c>
       <c r="M3">
-        <v>0.00457496898954604</v>
+        <v>0.00457534800018159</v>
       </c>
       <c r="N3">
-        <v>0.0001327632558598599</v>
+        <v>0.0001327097023571081</v>
       </c>
       <c r="O3">
-        <v>0.0002708548201863165</v>
+        <v>0.0002707447963642775</v>
       </c>
       <c r="P3">
-        <v>7.479586921936778E-05</v>
+        <v>7.478975670868637E-05</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03268703837887393</v>
+        <v>0.03401527480237109</v>
       </c>
       <c r="C4">
-        <v>0.03308208930069204</v>
+        <v>0.03439660627901007</v>
       </c>
       <c r="D4">
-        <v>0.01294161651126932</v>
+        <v>0.01313436859685155</v>
       </c>
       <c r="E4">
-        <v>0.00967991667339149</v>
+        <v>0.009871211113348651</v>
       </c>
       <c r="F4">
-        <v>0.004191538704781189</v>
+        <v>0.004193478679720806</v>
       </c>
       <c r="G4">
-        <v>0.0008075120882734732</v>
+        <v>0.0008072683511887296</v>
       </c>
       <c r="H4">
-        <v>0.01144742565820747</v>
+        <v>0.0118129347484714</v>
       </c>
       <c r="I4">
-        <v>0.00671788489937232</v>
+        <v>0.007091849127026288</v>
       </c>
       <c r="J4">
-        <v>0.00253802636563371</v>
+        <v>0.002914202099528589</v>
       </c>
       <c r="K4">
-        <v>0.01635653784408596</v>
+        <v>0.01709950822509101</v>
       </c>
       <c r="L4">
-        <v>0.004680106795690076</v>
+        <v>0.00485177592972779</v>
       </c>
       <c r="M4">
-        <v>0.00438872593466496</v>
+        <v>0.004388907332197902</v>
       </c>
       <c r="N4">
-        <v>0.0001329048486174654</v>
+        <v>0.0001328441840776492</v>
       </c>
       <c r="O4">
-        <v>0.000271153359176425</v>
+        <v>0.000271014169684731</v>
       </c>
       <c r="P4">
-        <v>7.48236213506826E-05</v>
+        <v>7.482057214892976E-05</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03267987457647352</v>
+        <v>0.03324907130091226</v>
       </c>
       <c r="C5">
-        <v>0.03307483495707963</v>
+        <v>0.03363802142708861</v>
       </c>
       <c r="D5">
-        <v>0.01293880364734776</v>
+        <v>0.01312812993902553</v>
       </c>
       <c r="E5">
-        <v>0.009677815015933854</v>
+        <v>0.00986654056009649</v>
       </c>
       <c r="F5">
-        <v>0.004190631304166157</v>
+        <v>0.004191485286702039</v>
       </c>
       <c r="G5">
-        <v>0.0008074823860026282</v>
+        <v>0.0008073763195439102</v>
       </c>
       <c r="H5">
-        <v>0.01144491182316586</v>
+        <v>0.01162702966422197</v>
       </c>
       <c r="I5">
-        <v>0.006716429393520017</v>
+        <v>0.006902993518913826</v>
       </c>
       <c r="J5">
-        <v>0.002537482578307925</v>
+        <v>0.002725293842485189</v>
       </c>
       <c r="K5">
-        <v>0.01635293431209988</v>
+        <v>0.01672343540560763</v>
       </c>
       <c r="L5">
-        <v>0.004679110507770502</v>
+        <v>0.005197616625515862</v>
       </c>
       <c r="M5">
-        <v>0.004387791006374493</v>
+        <v>0.004388336277132101</v>
       </c>
       <c r="N5">
-        <v>0.0001329055584013269</v>
+        <v>0.0001328788412469228</v>
       </c>
       <c r="O5">
-        <v>0.0002711548556429759</v>
+        <v>0.000271093952089662</v>
       </c>
       <c r="P5">
-        <v>7.482376047368589E-05</v>
+        <v>7.481459357434013E-05</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03176445909832985</v>
+        <v>0.03309182358399182</v>
       </c>
       <c r="C6">
-        <v>0.03214749768936931</v>
+        <v>0.03346118186013283</v>
       </c>
       <c r="D6">
-        <v>0.01257919029890253</v>
+        <v>0.012958631355594</v>
       </c>
       <c r="E6">
-        <v>0.009409129059544869</v>
+        <v>0.009787217672623662</v>
       </c>
       <c r="F6">
-        <v>0.004074609511239688</v>
+        <v>0.004076527930491848</v>
       </c>
       <c r="G6">
-        <v>0.0008038978758288921</v>
+        <v>0.0008036438794225174</v>
       </c>
       <c r="H6">
-        <v>0.01112351621502697</v>
+        <v>0.01130867632532737</v>
       </c>
       <c r="I6">
-        <v>0.006530340208430664</v>
+        <v>0.006718607938024531</v>
       </c>
       <c r="J6">
-        <v>0.002467965983584256</v>
+        <v>0.002656402105368472</v>
       </c>
       <c r="K6">
-        <v>0.0158922765418416</v>
+        <v>0.01645090586898508</v>
       </c>
       <c r="L6">
-        <v>0.004551664189516283</v>
+        <v>0.004551664187704753</v>
       </c>
       <c r="M6">
-        <v>0.004268191622590774</v>
+        <v>0.00426819162255944</v>
       </c>
       <c r="N6">
-        <v>0.0001329962646803075</v>
+        <v>0.0001329345313793469</v>
       </c>
       <c r="O6">
-        <v>0.0002713461103783841</v>
+        <v>0.0002712133661323418</v>
       </c>
       <c r="P6">
-        <v>7.484154163790811E-05</v>
+        <v>7.484154163786844E-05</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03247874839049302</v>
+        <v>0.03513768969557327</v>
       </c>
       <c r="C7">
-        <v>0.03287114985501046</v>
+        <v>0.03550391043462464</v>
       </c>
       <c r="D7">
-        <v>0.01285982309941792</v>
+        <v>0.0136200725351278</v>
       </c>
       <c r="E7">
-        <v>0.009618804090149124</v>
+        <v>0.01037631426506667</v>
       </c>
       <c r="F7">
-        <v>0.004165152311131387</v>
+        <v>0.00416910114410341</v>
       </c>
       <c r="G7">
-        <v>0.0008066589085220662</v>
+        <v>0.0008061683810877209</v>
       </c>
       <c r="H7">
-        <v>0.01137432692130294</v>
+        <v>0.01174567776931953</v>
       </c>
       <c r="I7">
-        <v>0.006675560800415096</v>
+        <v>0.007052918616289982</v>
       </c>
       <c r="J7">
-        <v>0.002522214155335788</v>
+        <v>0.00289973869107379</v>
       </c>
       <c r="K7">
-        <v>0.0162517550146712</v>
+        <v>0.01755603353408495</v>
       </c>
       <c r="L7">
-        <v>0.00465113258583812</v>
+        <v>0.004995702665280679</v>
       </c>
       <c r="M7">
-        <v>0.004361536086535782</v>
+        <v>0.004361896974932909</v>
       </c>
       <c r="N7">
-        <v>0.0001329254851962756</v>
+        <v>0.000132801268906381</v>
       </c>
       <c r="O7">
-        <v>0.0002711968710244252</v>
+        <v>0.0002709269160006944</v>
       </c>
       <c r="P7">
-        <v>7.482766655007626E-05</v>
+        <v>7.482156281721652E-05</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0342045145799881</v>
+        <v>0.03648368877566868</v>
       </c>
       <c r="C8">
-        <v>0.03461784845565195</v>
+        <v>0.03687408171905757</v>
       </c>
       <c r="D8">
-        <v>0.01353700420158547</v>
+        <v>0.01410906457827526</v>
       </c>
       <c r="E8">
-        <v>0.01012477259930289</v>
+        <v>0.01069429287496591</v>
       </c>
       <c r="F8">
-        <v>0.004383568581823606</v>
+        <v>0.004387122901393203</v>
       </c>
       <c r="G8">
-        <v>0.0008143728844170349</v>
+        <v>0.0008140155006877282</v>
       </c>
       <c r="H8">
-        <v>0.01197949121445045</v>
+        <v>0.01216933957500874</v>
       </c>
       <c r="I8">
-        <v>0.007025945260201521</v>
+        <v>0.00721707696372218</v>
       </c>
       <c r="J8">
-        <v>0.00265313928666514</v>
+        <v>0.002842771365578685</v>
       </c>
       <c r="K8">
-        <v>0.01711938540861845</v>
+        <v>0.01786855071374059</v>
       </c>
       <c r="L8">
-        <v>0.004890788055159365</v>
+        <v>0.005408966754572876</v>
       </c>
       <c r="M8">
-        <v>0.00458642599147998</v>
+        <v>0.004586996595134945</v>
       </c>
       <c r="N8">
-        <v>0.0001327545320030404</v>
+        <v>0.0001326483560600745</v>
       </c>
       <c r="O8">
-        <v>0.0002708364269145949</v>
+        <v>0.0002706125432998827</v>
       </c>
       <c r="P8">
-        <v>7.479415952258343E-05</v>
+        <v>7.47849803605812E-05</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03917451800653793</v>
+        <v>0.04146359089084667</v>
       </c>
       <c r="C9">
-        <v>0.03963375873432974</v>
+        <v>0.0419006221733832</v>
       </c>
       <c r="D9">
-        <v>0.01540842882886008</v>
+        <v>0.01560817845887554</v>
       </c>
       <c r="E9">
-        <v>0.01152312099636318</v>
+        <v>0.01171976012050309</v>
       </c>
       <c r="F9">
-        <v>0.004986771444049641</v>
+        <v>0.004990803245910096</v>
       </c>
       <c r="G9">
-        <v>0.0008430488135422222</v>
+        <v>0.0008428317652931826</v>
       </c>
       <c r="H9">
-        <v>0.01383149738389258</v>
+        <v>0.01493120293147655</v>
       </c>
       <c r="I9">
-        <v>0.008179701794821357</v>
+        <v>0.009307041533692729</v>
       </c>
       <c r="J9">
-        <v>0.003202829581570478</v>
+        <v>0.004338309859775835</v>
       </c>
       <c r="K9">
-        <v>0.01970201917222267</v>
+        <v>0.02137950156688403</v>
       </c>
       <c r="L9">
-        <v>0.005550122392796368</v>
+        <v>0.006593245486771719</v>
       </c>
       <c r="M9">
-        <v>0.005205074074589848</v>
+        <v>0.005206378497442217</v>
       </c>
       <c r="N9">
-        <v>0.0001322724546387133</v>
+        <v>0.0001321668194771422</v>
       </c>
       <c r="O9">
-        <v>0.0002698146003166572</v>
+        <v>0.000269556011545457</v>
       </c>
       <c r="P9">
-        <v>7.470141286989558E-05</v>
+        <v>7.468291924870831E-05</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05644723945412364</v>
+        <v>0.06069525802884753</v>
       </c>
       <c r="C10">
-        <v>0.05700466810300304</v>
+        <v>0.0612186657659877</v>
       </c>
       <c r="D10">
-        <v>0.02198533223031137</v>
+        <v>0.02334645428109406</v>
       </c>
       <c r="E10">
-        <v>0.01643816755698032</v>
+        <v>0.0177910076678235</v>
       </c>
       <c r="F10">
-        <v>0.007104143058232365</v>
+        <v>0.007115659905696155</v>
       </c>
       <c r="G10">
-        <v>0.001137026461220512</v>
+        <v>0.001138852955847492</v>
       </c>
       <c r="H10">
-        <v>0.01989079328406589</v>
+        <v>0.0204703438697642</v>
       </c>
       <c r="I10">
-        <v>0.01177133496358721</v>
+        <v>0.0123557277705307</v>
       </c>
       <c r="J10">
-        <v>0.004667741899217905</v>
+        <v>0.005246950411587095</v>
       </c>
       <c r="K10">
-        <v>0.02832918902388737</v>
+        <v>0.02948729192623064</v>
       </c>
       <c r="L10">
-        <v>0.00783875009210244</v>
+        <v>0.008528995795888771</v>
       </c>
       <c r="M10">
-        <v>0.007352069516962647</v>
+        <v>0.00735331435293645</v>
       </c>
       <c r="N10">
-        <v>0.0001305743075353274</v>
+        <v>0.0001303647058135437</v>
       </c>
       <c r="O10">
-        <v>0.0002662304568939204</v>
+        <v>0.0002657930484799685</v>
       </c>
       <c r="P10">
-        <v>7.437303420958299E-05</v>
+        <v>7.436055033002827E-05</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07107628098039348</v>
+        <v>0.07518267431807056</v>
       </c>
       <c r="C11">
-        <v>0.07168708941981024</v>
+        <v>0.07576457143701866</v>
       </c>
       <c r="D11">
-        <v>0.02787715185241247</v>
+        <v>0.029259853143564</v>
       </c>
       <c r="E11">
-        <v>0.02084198892575961</v>
+        <v>0.02221393884661176</v>
       </c>
       <c r="F11">
-        <v>0.008999701441474063</v>
+        <v>0.009014340638477072</v>
       </c>
       <c r="G11">
-        <v>0.001439272675325835</v>
+        <v>0.001441646212884166</v>
       </c>
       <c r="H11">
-        <v>0.0247953079337705</v>
+        <v>0.02557031925901044</v>
       </c>
       <c r="I11">
-        <v>0.01444557652894062</v>
+        <v>0.01522930986785169</v>
       </c>
       <c r="J11">
-        <v>0.005431148050643752</v>
+        <v>0.006207794188676968</v>
       </c>
       <c r="K11">
-        <v>0.03553159509500843</v>
+        <v>0.03726950400695555</v>
       </c>
       <c r="L11">
-        <v>0.009855066471986296</v>
+        <v>0.01177861906878317</v>
       </c>
       <c r="M11">
-        <v>0.009243385297845557</v>
+        <v>0.009247789332435962</v>
       </c>
       <c r="N11">
-        <v>0.0001290726599853638</v>
+        <v>0.0001288644154715955</v>
       </c>
       <c r="O11">
-        <v>0.0002630774388990648</v>
+        <v>0.0002626303335996045</v>
       </c>
       <c r="P11">
-        <v>7.407541740780829E-05</v>
+        <v>7.404037881512636E-05</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.09673415819084545</v>
+        <v>0.1048177200562657</v>
       </c>
       <c r="C12">
-        <v>0.09738685319393763</v>
+        <v>0.1054288330581679</v>
       </c>
       <c r="D12">
-        <v>0.03784958864102288</v>
+        <v>0.03934128994829697</v>
       </c>
       <c r="E12">
-        <v>0.02834618700943274</v>
+        <v>0.02980666774708844</v>
       </c>
       <c r="F12">
-        <v>0.01214559008876791</v>
+        <v>0.0121864034500352</v>
       </c>
       <c r="G12">
-        <v>0.001941086682851624</v>
+        <v>0.001947959476654363</v>
       </c>
       <c r="H12">
-        <v>0.03354700505408269</v>
+        <v>0.03497955243689215</v>
       </c>
       <c r="I12">
-        <v>0.01951293398856615</v>
+        <v>0.02094265596519638</v>
       </c>
       <c r="J12">
-        <v>0.007330619033446139</v>
+        <v>0.008730334590375552</v>
       </c>
       <c r="K12">
-        <v>0.04811658318668249</v>
+        <v>0.052485515293805</v>
       </c>
       <c r="L12">
-        <v>0.01311950209346025</v>
+        <v>0.01522475201199944</v>
       </c>
       <c r="M12">
-        <v>0.01230534741374626</v>
+        <v>0.01231192197202728</v>
       </c>
       <c r="N12">
-        <v>0.0001264720316947066</v>
+        <v>0.0001260505035441098</v>
       </c>
       <c r="O12">
-        <v>0.0002576050100201733</v>
+        <v>0.0002566699275153322</v>
       </c>
       <c r="P12">
-        <v>7.357709801405601E-05</v>
+        <v>7.353800678539547E-05</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1170869486172722</v>
+        <v>0.1279058650966372</v>
       </c>
       <c r="C13">
-        <v>0.1177600012017873</v>
+        <v>0.1285335250751468</v>
       </c>
       <c r="D13">
-        <v>0.04551531096327387</v>
+        <v>0.04891389987200296</v>
       </c>
       <c r="E13">
-        <v>0.03402926299707529</v>
+        <v>0.03737482747678429</v>
       </c>
       <c r="F13">
-        <v>0.01467460669456323</v>
+        <v>0.01474534730667837</v>
       </c>
       <c r="G13">
-        <v>0.002344758773617269</v>
+        <v>0.002356361528501994</v>
       </c>
       <c r="H13">
-        <v>0.04078143274216398</v>
+        <v>0.04386704163861289</v>
       </c>
       <c r="I13">
-        <v>0.02378923824106043</v>
+        <v>0.02689125974733395</v>
       </c>
       <c r="J13">
-        <v>0.009058296382549317</v>
+        <v>0.01211661415492155</v>
       </c>
       <c r="K13">
-        <v>0.05844037963293024</v>
+        <v>0.06359279441450055</v>
       </c>
       <c r="L13">
-        <v>0.01584496750010403</v>
+        <v>0.01814165600672106</v>
       </c>
       <c r="M13">
-        <v>0.01470007935869098</v>
+        <v>0.01470880302679636</v>
       </c>
       <c r="N13">
-        <v>0.0001243583660491166</v>
+        <v>0.0001237641099265537</v>
       </c>
       <c r="O13">
-        <v>0.0002531468347900886</v>
+        <v>0.000251843845203829</v>
       </c>
       <c r="P13">
-        <v>7.317006782257448E-05</v>
+        <v>7.312685463233091E-05</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1185762728790769</v>
+        <v>0.1302514384855123</v>
       </c>
       <c r="C14">
-        <v>0.1192527453826538</v>
+        <v>0.1308795218990062</v>
       </c>
       <c r="D14">
-        <v>0.04624083089785333</v>
+        <v>0.04966627261070838</v>
       </c>
       <c r="E14">
-        <v>0.0345718190546562</v>
+        <v>0.03793882846515739</v>
       </c>
       <c r="F14">
-        <v>0.01490811607743861</v>
+        <v>0.01498576689962337</v>
       </c>
       <c r="G14">
-        <v>0.002382006802520581</v>
+        <v>0.002394778343929434</v>
       </c>
       <c r="H14">
-        <v>0.04124288398123226</v>
+        <v>0.04415499417889958</v>
       </c>
       <c r="I14">
-        <v>0.02396975434303108</v>
+        <v>0.02688435215315494</v>
       </c>
       <c r="J14">
-        <v>0.009001730045806651</v>
+        <v>0.01186269114585117</v>
       </c>
       <c r="K14">
-        <v>0.0591836116815097</v>
+        <v>0.06475843860783796</v>
       </c>
       <c r="L14">
-        <v>0.01607984776442575</v>
+        <v>0.01748429123223585</v>
       </c>
       <c r="M14">
-        <v>0.01492033592610253</v>
+        <v>0.01492576555906557</v>
       </c>
       <c r="N14">
-        <v>0.0001241806956310067</v>
+        <v>0.0001235397292561384</v>
       </c>
       <c r="O14">
-        <v>0.0002527782378652028</v>
+        <v>0.0002513767294831074</v>
       </c>
       <c r="P14">
-        <v>7.313229806182863E-05</v>
+        <v>7.31058050519842E-05</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1170296869416328</v>
+        <v>0.1276280680678261</v>
       </c>
       <c r="C15">
-        <v>0.1177049928786075</v>
+        <v>0.1282583511675575</v>
       </c>
       <c r="D15">
-        <v>0.04564372699747539</v>
+        <v>0.04823785418571899</v>
       </c>
       <c r="E15">
-        <v>0.03412529310217658</v>
+        <v>0.03666711732825268</v>
       </c>
       <c r="F15">
-        <v>0.01471593993574852</v>
+        <v>0.01478470764536071</v>
       </c>
       <c r="G15">
-        <v>0.002351328368515333</v>
+        <v>0.002362752929989781</v>
       </c>
       <c r="H15">
-        <v>0.04070723560921654</v>
+        <v>0.04359095864978693</v>
       </c>
       <c r="I15">
-        <v>0.02365952567815203</v>
+        <v>0.02655544327056542</v>
       </c>
       <c r="J15">
-        <v>0.0088853979085285</v>
+        <v>0.01173628979519684</v>
       </c>
       <c r="K15">
-        <v>0.05841335118480321</v>
+        <v>0.06375000282064303</v>
       </c>
       <c r="L15">
-        <v>0.01571553077814416</v>
+        <v>0.01836527199162356</v>
       </c>
       <c r="M15">
-        <v>0.0147403871479394</v>
+        <v>0.01475048486103027</v>
       </c>
       <c r="N15">
-        <v>0.0001243427422373788</v>
+        <v>0.000123766663786687</v>
       </c>
       <c r="O15">
-        <v>0.0002531192498267066</v>
+        <v>0.0002518425743946994</v>
       </c>
       <c r="P15">
-        <v>7.316632577155434E-05</v>
+        <v>7.311644945584129E-05</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1169832175980083</v>
+        <v>0.1269515640487345</v>
       </c>
       <c r="C16">
-        <v>0.1176584878676578</v>
+        <v>0.1275842152939898</v>
       </c>
       <c r="D16">
-        <v>0.04562578550641142</v>
+        <v>0.04840641020687472</v>
       </c>
       <c r="E16">
-        <v>0.03411187620458574</v>
+        <v>0.03684343588822264</v>
       </c>
       <c r="F16">
-        <v>0.01471016560560211</v>
+        <v>0.01477505341413246</v>
       </c>
       <c r="G16">
-        <v>0.002350406588291097</v>
+        <v>0.002361066604984562</v>
       </c>
       <c r="H16">
-        <v>0.04069114165303517</v>
+        <v>0.04375406706399927</v>
       </c>
       <c r="I16">
-        <v>0.0236502046885733</v>
+        <v>0.02673741934730545</v>
       </c>
       <c r="J16">
-        <v>0.008881902666761577</v>
+        <v>0.01193100468973606</v>
       </c>
       <c r="K16">
-        <v>0.0583902080420187</v>
+        <v>0.06292884458857873</v>
       </c>
       <c r="L16">
-        <v>0.01588290740133281</v>
+        <v>0.0187202738479471</v>
       </c>
       <c r="M16">
-        <v>0.01473565712451602</v>
+        <v>0.01474645944348496</v>
       </c>
       <c r="N16">
-        <v>0.0001243476083527836</v>
+        <v>0.000123803657769995</v>
       </c>
       <c r="O16">
-        <v>0.0002531294902584671</v>
+        <v>0.0002519306979594555</v>
       </c>
       <c r="P16">
-        <v>7.316397399242433E-05</v>
+        <v>7.31106045680603E-05</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1167814883798187</v>
+        <v>0.1303167877246414</v>
       </c>
       <c r="C17">
-        <v>0.1174566033783799</v>
+        <v>0.1309360722406612</v>
       </c>
       <c r="D17">
-        <v>0.04554789879097686</v>
+        <v>0.04900388481585741</v>
       </c>
       <c r="E17">
-        <v>0.03405363149797376</v>
+        <v>0.03744299030016577</v>
       </c>
       <c r="F17">
-        <v>0.01468509842623054</v>
+        <v>0.01477319032353835</v>
       </c>
       <c r="G17">
-        <v>0.002346405022568356</v>
+        <v>0.002360864608885429</v>
       </c>
       <c r="H17">
-        <v>0.04062127600772622</v>
+        <v>0.04317431004506134</v>
       </c>
       <c r="I17">
-        <v>0.02360974128083934</v>
+        <v>0.02613939699845295</v>
       </c>
       <c r="J17">
-        <v>0.008866729464151128</v>
+        <v>0.01132796881147036</v>
       </c>
       <c r="K17">
-        <v>0.05828974103719157</v>
+        <v>0.06409859827886509</v>
       </c>
       <c r="L17">
-        <v>0.01585793809079539</v>
+        <v>0.01851464765022538</v>
       </c>
       <c r="M17">
-        <v>0.01471224240189852</v>
+        <v>0.01472234006571372</v>
       </c>
       <c r="N17">
-        <v>0.0001243687308959496</v>
+        <v>0.0001236300417758947</v>
       </c>
       <c r="O17">
-        <v>0.0002531739413594452</v>
+        <v>0.0002515762247876438</v>
       </c>
       <c r="P17">
-        <v>7.3167984820059E-05</v>
+        <v>7.311801266836435E-05</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0976420681862827</v>
+        <v>0.1110752385324066</v>
       </c>
       <c r="C18">
-        <v>0.09829587874292224</v>
+        <v>0.111665201891422</v>
       </c>
       <c r="D18">
-        <v>0.03800672914319406</v>
+        <v>0.04116182088803463</v>
       </c>
       <c r="E18">
-        <v>0.02841475857958254</v>
+        <v>0.03151732329158143</v>
       </c>
       <c r="F18">
-        <v>0.01225843773439598</v>
+        <v>0.01232816590532197</v>
       </c>
       <c r="G18">
-        <v>0.001959113516510097</v>
+        <v>0.001970745508765229</v>
       </c>
       <c r="H18">
-        <v>0.03386153927700694</v>
+        <v>0.03671143472225076</v>
       </c>
       <c r="I18">
-        <v>0.01969507076981617</v>
+        <v>0.02255225938208354</v>
       </c>
       <c r="J18">
-        <v>0.007398905150608236</v>
+        <v>0.01021058723470184</v>
       </c>
       <c r="K18">
-        <v>0.04856890778937775</v>
+        <v>0.05558703645940391</v>
       </c>
       <c r="L18">
-        <v>0.01323494816839394</v>
+        <v>0.01623799402585845</v>
       </c>
       <c r="M18">
-        <v>0.01241363320928281</v>
+        <v>0.01242309041945256</v>
       </c>
       <c r="N18">
-        <v>0.0001263797095525258</v>
+        <v>0.0001256683006550234</v>
       </c>
       <c r="O18">
-        <v>0.0002574078401678872</v>
+        <v>0.0002558364850337302</v>
       </c>
       <c r="P18">
-        <v>7.355910306229121E-05</v>
+        <v>7.350338627984306E-05</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06445803204756727</v>
+        <v>0.07961443527609766</v>
       </c>
       <c r="C19">
-        <v>0.06504218913393449</v>
+        <v>0.08010739471911141</v>
       </c>
       <c r="D19">
-        <v>0.02501961948355134</v>
+        <v>0.02900830896895741</v>
       </c>
       <c r="E19">
-        <v>0.01870605425315936</v>
+        <v>0.0226601268577521</v>
       </c>
       <c r="F19">
-        <v>0.008080411379823431</v>
+        <v>0.008128755415856774</v>
       </c>
       <c r="G19">
-        <v>0.00129269907078038</v>
+        <v>0.001300704960382588</v>
       </c>
       <c r="H19">
-        <v>0.02260460373200426</v>
+        <v>0.02685280149336599</v>
       </c>
       <c r="I19">
-        <v>0.01334348021309065</v>
+        <v>0.0176554721244142</v>
       </c>
       <c r="J19">
-        <v>0.005257798591402745</v>
+        <v>0.009561848628346629</v>
       </c>
       <c r="K19">
-        <v>0.03222927378730114</v>
+        <v>0.03980469876391084</v>
       </c>
       <c r="L19">
-        <v>0.008879777895586076</v>
+        <v>0.01188095088808964</v>
       </c>
       <c r="M19">
-        <v>0.008328572026244775</v>
+        <v>0.008334698974515846</v>
       </c>
       <c r="N19">
-        <v>0.0001297811532620008</v>
+        <v>0.0001290148711858631</v>
       </c>
       <c r="O19">
-        <v>0.000264559818036084</v>
+        <v>0.0002628549989660949</v>
       </c>
       <c r="P19">
-        <v>7.422034600631707E-05</v>
+        <v>7.416619384979128E-05</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0554683255691461</v>
+        <v>0.06851476505605551</v>
       </c>
       <c r="C20">
-        <v>0.05602408516406011</v>
+        <v>0.06898208041529921</v>
       </c>
       <c r="D20">
-        <v>0.02167900018450162</v>
+        <v>0.02445234068811702</v>
       </c>
       <c r="E20">
-        <v>0.0162092192016236</v>
+        <v>0.01895716594988657</v>
       </c>
       <c r="F20">
-        <v>0.007005571801578712</v>
+        <v>0.007040464086440278</v>
       </c>
       <c r="G20">
-        <v>0.001121285082955963</v>
+        <v>0.001127077383584602</v>
       </c>
       <c r="H20">
-        <v>0.01925434620825676</v>
+        <v>0.0226768940715124</v>
       </c>
       <c r="I20">
-        <v>0.01123763387418932</v>
+        <v>0.01471915279786463</v>
       </c>
       <c r="J20">
-        <v>0.004229258983586594</v>
+        <v>0.00771019557680435</v>
       </c>
       <c r="K20">
-        <v>0.02756610016692831</v>
+        <v>0.03370744102934958</v>
       </c>
       <c r="L20">
-        <v>0.00773361762411403</v>
+        <v>0.01146576075118269</v>
       </c>
       <c r="M20">
-        <v>0.007253451179921462</v>
+        <v>0.007260015419637235</v>
       </c>
       <c r="N20">
-        <v>0.0001306620099241851</v>
+        <v>0.0001300198180936306</v>
       </c>
       <c r="O20">
-        <v>0.0002664269748741626</v>
+        <v>0.0002649965926608502</v>
       </c>
       <c r="P20">
-        <v>7.43883386552496E-05</v>
+        <v>7.432165627573941E-05</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.04617135481282102</v>
+        <v>0.05990288654718372</v>
       </c>
       <c r="C21">
-        <v>0.04668210310930461</v>
+        <v>0.06031601148005783</v>
       </c>
       <c r="D21">
-        <v>0.01813729315015579</v>
+        <v>0.02050217885404205</v>
       </c>
       <c r="E21">
-        <v>0.0135623334232449</v>
+        <v>0.0159053043428835</v>
       </c>
       <c r="F21">
-        <v>0.005865635296200534</v>
+        <v>0.005895565286932594</v>
       </c>
       <c r="G21">
-        <v>0.0009395412619036703</v>
+        <v>0.0009445910614276715</v>
       </c>
       <c r="H21">
-        <v>0.01608968607165736</v>
+        <v>0.01948798119172501</v>
       </c>
       <c r="I21">
-        <v>0.009405526718188473</v>
+        <v>0.01286208012281347</v>
       </c>
       <c r="J21">
-        <v>0.003543252187985027</v>
+        <v>0.007002648833790743</v>
       </c>
       <c r="K21">
-        <v>0.02301904341174987</v>
+        <v>0.03044605027561431</v>
       </c>
       <c r="L21">
-        <v>0.006505451764355154</v>
+        <v>0.01098067612848322</v>
       </c>
       <c r="M21">
-        <v>0.006101337441590607</v>
+        <v>0.00610788275588214</v>
       </c>
       <c r="N21">
-        <v>0.0001315782369691123</v>
+        <v>0.0001309167936501519</v>
       </c>
       <c r="O21">
-        <v>0.0002683573075263692</v>
+        <v>0.0002668622574420601</v>
       </c>
       <c r="P21">
-        <v>7.456555824182939E-05</v>
+        <v>7.448646450308727E-05</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0428363532944932</v>
+        <v>0.05264528378985167</v>
       </c>
       <c r="C22">
-        <v>0.0433247472280259</v>
+        <v>0.0530564370232427</v>
       </c>
       <c r="D22">
-        <v>0.01702521369278466</v>
+        <v>0.01897435021691321</v>
       </c>
       <c r="E22">
-        <v>0.01277869260769269</v>
+        <v>0.01471377162106531</v>
       </c>
       <c r="F22">
-        <v>0.005447229275399604</v>
+        <v>0.005466848820221845</v>
       </c>
       <c r="G22">
-        <v>0.0008728288525822348</v>
+        <v>0.0008761549562364814</v>
       </c>
       <c r="H22">
-        <v>0.01492861490508666</v>
+        <v>0.01754645083608918</v>
       </c>
       <c r="I22">
-        <v>0.008733345573339043</v>
+        <v>0.0114014785837813</v>
       </c>
       <c r="J22">
-        <v>0.00329168373739629</v>
+        <v>0.005966623401095891</v>
       </c>
       <c r="K22">
-        <v>0.02135157484650547</v>
+        <v>0.02720946873696435</v>
       </c>
       <c r="L22">
-        <v>0.006051446924407197</v>
+        <v>0.01016337102954137</v>
       </c>
       <c r="M22">
-        <v>0.00567541603352053</v>
+        <v>0.005680988286903327</v>
       </c>
       <c r="N22">
-        <v>0.0001319081040649763</v>
+        <v>0.0001314396818947545</v>
       </c>
       <c r="O22">
-        <v>0.0002690552865005219</v>
+        <v>0.0002679875334317464</v>
       </c>
       <c r="P22">
-        <v>7.46303384399166E-05</v>
+        <v>7.45579350339088E-05</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.04171008062149725</v>
+        <v>0.04996039117330201</v>
       </c>
       <c r="C23">
-        <v>0.04219009461279218</v>
+        <v>0.05037242350136961</v>
       </c>
       <c r="D23">
-        <v>0.01639828972528314</v>
+        <v>0.01795407610864708</v>
       </c>
       <c r="E23">
-        <v>0.01226279734163205</v>
+        <v>0.01380696967233712</v>
       </c>
       <c r="F23">
-        <v>0.005305646097971049</v>
+        <v>0.00532158850893915</v>
       </c>
       <c r="G23">
-        <v>0.0008623471195752201</v>
+        <v>0.0008619243871865189</v>
       </c>
       <c r="H23">
-        <v>0.01471600162757467</v>
+        <v>0.01658735651659997</v>
       </c>
       <c r="I23">
-        <v>0.008691935301908716</v>
+        <v>0.01059733928339906</v>
       </c>
       <c r="J23">
-        <v>0.003394574553090604</v>
+        <v>0.005303365844224028</v>
       </c>
       <c r="K23">
-        <v>0.02097160889262958</v>
+        <v>0.02549902978105374</v>
       </c>
       <c r="L23">
-        <v>0.005897537198860509</v>
+        <v>0.008550107163682787</v>
       </c>
       <c r="M23">
-        <v>0.005531021635631378</v>
+        <v>0.005534528888344053</v>
       </c>
       <c r="N23">
-        <v>0.0001320210884625807</v>
+        <v>0.0001316298381824063</v>
       </c>
       <c r="O23">
-        <v>0.000269284702940935</v>
+        <v>0.0002684032779612492</v>
       </c>
       <c r="P23">
-        <v>7.465220978496638E-05</v>
+        <v>7.460543179025254E-05</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03912221375763542</v>
+        <v>0.04427934067827034</v>
       </c>
       <c r="C24">
-        <v>0.03957728448485472</v>
+        <v>0.04468829866035904</v>
       </c>
       <c r="D24">
-        <v>0.01550220787103489</v>
+        <v>0.01684692745605495</v>
       </c>
       <c r="E24">
-        <v>0.01164054351729405</v>
+        <v>0.01297882129295969</v>
       </c>
       <c r="F24">
-        <v>0.00495672280951789</v>
+        <v>0.004966009064355682</v>
       </c>
       <c r="G24">
-        <v>0.0008413374400968852</v>
+        <v>0.0008408592477180638</v>
       </c>
       <c r="H24">
-        <v>0.01356819054158171</v>
+        <v>0.01413608482989103</v>
       </c>
       <c r="I24">
-        <v>0.0079457338161234</v>
+        <v>0.008519538350907355</v>
       </c>
       <c r="J24">
-        <v>0.002997028602208182</v>
+        <v>0.003567704339059142</v>
       </c>
       <c r="K24">
-        <v>0.01939859852681384</v>
+        <v>0.02128051581592719</v>
       </c>
       <c r="L24">
-        <v>0.005516933751413475</v>
+        <v>0.007271276355260371</v>
       </c>
       <c r="M24">
-        <v>0.00517393529143197</v>
+        <v>0.00517610538261677</v>
       </c>
       <c r="N24">
-        <v>0.0001322866311487866</v>
+        <v>0.0001320420972924108</v>
       </c>
       <c r="O24">
-        <v>0.0002698537592199618</v>
+        <v>0.0002693337354372687</v>
       </c>
       <c r="P24">
-        <v>7.470610120706124E-05</v>
+        <v>7.467515466402279E-05</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.03788026158676189</v>
+        <v>0.04035617165190263</v>
       </c>
       <c r="C25">
-        <v>0.03832393402098464</v>
+        <v>0.04077579814513723</v>
       </c>
       <c r="D25">
-        <v>0.01501664733754242</v>
+        <v>0.01559224716874709</v>
       </c>
       <c r="E25">
-        <v>0.01127769676120547</v>
+        <v>0.01185024328363584</v>
       </c>
       <c r="F25">
-        <v>0.004800285207904117</v>
+        <v>0.004804547082857461</v>
       </c>
       <c r="G25">
-        <v>0.0008330125879476264</v>
+        <v>0.0008327333505543704</v>
       </c>
       <c r="H25">
-        <v>0.01313444113378698</v>
+        <v>0.01368752074842997</v>
       </c>
       <c r="I25">
-        <v>0.007694613385463281</v>
+        <v>0.008259451789044005</v>
       </c>
       <c r="J25">
-        <v>0.002903113748805964</v>
+        <v>0.003469931664583698</v>
       </c>
       <c r="K25">
-        <v>0.01877614450636061</v>
+        <v>0.01989726180373189</v>
       </c>
       <c r="L25">
-        <v>0.005346136865456248</v>
+        <v>0.006213642478114432</v>
       </c>
       <c r="M25">
-        <v>0.005013684665605076</v>
+        <v>0.005014729277344864</v>
       </c>
       <c r="N25">
-        <v>0.0001324097037591506</v>
+        <v>0.0001322936375985079</v>
       </c>
       <c r="O25">
-        <v>0.0002701132098719571</v>
+        <v>0.0002698569600373036</v>
       </c>
       <c r="P25">
-        <v>7.473019532096861E-05</v>
+        <v>7.471482012356081E-05</v>
       </c>
     </row>
   </sheetData>

--- a/PRO1/step_3/results/res_line/i_ka.xlsx
+++ b/PRO1/step_3/results/res_line/i_ka.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03740507779290062</v>
+        <v>0.03569410473533174</v>
       </c>
       <c r="C2">
-        <v>0.03781346804533573</v>
+        <v>0.03611975863727646</v>
       </c>
       <c r="D2">
-        <v>0.01461719293034961</v>
+        <v>0.01423421537065035</v>
       </c>
       <c r="E2">
-        <v>0.01107400627701278</v>
+        <v>0.01069302070356844</v>
       </c>
       <c r="F2">
-        <v>0.004550903064679672</v>
+        <v>0.004548135111106951</v>
       </c>
       <c r="G2">
-        <v>0.0008208626513927403</v>
+        <v>0.0008211088683254546</v>
       </c>
       <c r="H2">
-        <v>0.01262337159613168</v>
+        <v>0.01243545789372306</v>
       </c>
       <c r="I2">
-        <v>0.007480030999614096</v>
+        <v>0.007289933459872551</v>
       </c>
       <c r="J2">
-        <v>0.002941101867588774</v>
+        <v>0.002751810508117191</v>
       </c>
       <c r="K2">
-        <v>0.01870364547665599</v>
+        <v>0.01777333703343486</v>
       </c>
       <c r="L2">
-        <v>0.005588643090870801</v>
+        <v>0.005070711050116914</v>
       </c>
       <c r="M2">
-        <v>0.004755846914983547</v>
+        <v>0.004755254709870565</v>
       </c>
       <c r="N2">
-        <v>0.0001325363468324938</v>
+        <v>0.0001326160060424513</v>
       </c>
       <c r="O2">
-        <v>0.0002703723918623107</v>
+        <v>0.000270547589786186</v>
       </c>
       <c r="P2">
-        <v>7.475974269059109E-05</v>
+        <v>7.476893230069664E-05</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03525489730781707</v>
+        <v>0.03430607653350725</v>
       </c>
       <c r="C3">
-        <v>0.03565530559180635</v>
+        <v>0.03471635108505955</v>
       </c>
       <c r="D3">
-        <v>0.01388174058987455</v>
+        <v>0.01369020755328895</v>
       </c>
       <c r="E3">
-        <v>0.01047699151549661</v>
+        <v>0.01028652327547427</v>
       </c>
       <c r="F3">
-        <v>0.004374219331176665</v>
+        <v>0.004372757439674906</v>
       </c>
       <c r="G3">
-        <v>0.0008137642466799011</v>
+        <v>0.0008139156045240203</v>
       </c>
       <c r="H3">
-        <v>0.01195367456742189</v>
+        <v>0.01194942575818411</v>
       </c>
       <c r="I3">
-        <v>0.007010963222459935</v>
+        <v>0.007008532433137546</v>
       </c>
       <c r="J3">
-        <v>0.002647529552882961</v>
+        <v>0.002646629985005719</v>
       </c>
       <c r="K3">
-        <v>0.01744913616912539</v>
+        <v>0.01707627549568879</v>
       </c>
       <c r="L3">
-        <v>0.005222939832484564</v>
+        <v>0.004878578457714776</v>
       </c>
       <c r="M3">
-        <v>0.00457534800018159</v>
+        <v>0.00457496898954604</v>
       </c>
       <c r="N3">
-        <v>0.0001327097023571081</v>
+        <v>0.000132753499455701</v>
       </c>
       <c r="O3">
-        <v>0.0002707447963642775</v>
+        <v>0.0002708374694375241</v>
       </c>
       <c r="P3">
-        <v>7.478975670868637E-05</v>
+        <v>7.479586921936778E-05</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03401527480237109</v>
+        <v>0.03268703837675473</v>
       </c>
       <c r="C4">
-        <v>0.03439660627901007</v>
+        <v>0.03308208929779875</v>
       </c>
       <c r="D4">
-        <v>0.01313436859685155</v>
+        <v>0.01294161650888378</v>
       </c>
       <c r="E4">
-        <v>0.009871211113348651</v>
+        <v>0.009679916671174781</v>
       </c>
       <c r="F4">
-        <v>0.004193478679720806</v>
+        <v>0.004191538704518301</v>
       </c>
       <c r="G4">
-        <v>0.0008072683511887296</v>
+        <v>0.0008075120882521903</v>
       </c>
       <c r="H4">
-        <v>0.0118129347484714</v>
+        <v>0.01144742565763122</v>
       </c>
       <c r="I4">
-        <v>0.007091849127026288</v>
+        <v>0.006717884898974307</v>
       </c>
       <c r="J4">
-        <v>0.002914202099528589</v>
+        <v>0.002538026365470834</v>
       </c>
       <c r="K4">
-        <v>0.01709950822509101</v>
+        <v>0.0163565378432101</v>
       </c>
       <c r="L4">
-        <v>0.00485177592972779</v>
+        <v>0.004680106795690076</v>
       </c>
       <c r="M4">
-        <v>0.004388907332197902</v>
+        <v>0.00438872593466496</v>
       </c>
       <c r="N4">
-        <v>0.0001328441840776492</v>
+        <v>0.0001329048486303002</v>
       </c>
       <c r="O4">
-        <v>0.000271014169684731</v>
+        <v>0.0002711533591635934</v>
       </c>
       <c r="P4">
-        <v>7.482057214892976E-05</v>
+        <v>7.48236213506826E-05</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03324907130091226</v>
+        <v>0.03267987457647639</v>
       </c>
       <c r="C5">
-        <v>0.03363802142708861</v>
+        <v>0.03307483495708309</v>
       </c>
       <c r="D5">
-        <v>0.01312812993902553</v>
+        <v>0.01293880364735743</v>
       </c>
       <c r="E5">
-        <v>0.00986654056009649</v>
+        <v>0.009677815015948362</v>
       </c>
       <c r="F5">
-        <v>0.004191485286702039</v>
+        <v>0.004190631304177517</v>
       </c>
       <c r="G5">
-        <v>0.0008073763195439102</v>
+        <v>0.0008074823860032334</v>
       </c>
       <c r="H5">
-        <v>0.01162702966422197</v>
+        <v>0.01144491182315433</v>
       </c>
       <c r="I5">
-        <v>0.006902993518913826</v>
+        <v>0.006716429393511635</v>
       </c>
       <c r="J5">
-        <v>0.002725293842485189</v>
+        <v>0.002537482578295885</v>
       </c>
       <c r="K5">
-        <v>0.01672343540560763</v>
+        <v>0.01635293431208325</v>
       </c>
       <c r="L5">
-        <v>0.005197616625515862</v>
+        <v>0.004679110507770502</v>
       </c>
       <c r="M5">
-        <v>0.004388336277132101</v>
+        <v>0.004387791006374493</v>
       </c>
       <c r="N5">
-        <v>0.0001328788412469228</v>
+        <v>0.0001329055583690995</v>
       </c>
       <c r="O5">
-        <v>0.000271093952089662</v>
+        <v>0.0002711548556398388</v>
       </c>
       <c r="P5">
-        <v>7.481459357434013E-05</v>
+        <v>7.482376047368589E-05</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03309182358399182</v>
+        <v>0.03176445909833073</v>
       </c>
       <c r="C6">
-        <v>0.03346118186013283</v>
+        <v>0.03214749768937171</v>
       </c>
       <c r="D6">
-        <v>0.012958631355594</v>
+        <v>0.01257919029890575</v>
       </c>
       <c r="E6">
-        <v>0.009787217672623662</v>
+        <v>0.009409129059540028</v>
       </c>
       <c r="F6">
-        <v>0.004076527930491848</v>
+        <v>0.004074609511239968</v>
       </c>
       <c r="G6">
-        <v>0.0008036438794225174</v>
+        <v>0.0008038978758277091</v>
       </c>
       <c r="H6">
-        <v>0.01130867632532737</v>
+        <v>0.0111235162150239</v>
       </c>
       <c r="I6">
-        <v>0.006718607938024531</v>
+        <v>0.006530340208434252</v>
       </c>
       <c r="J6">
-        <v>0.002656402105368472</v>
+        <v>0.002467965983576645</v>
       </c>
       <c r="K6">
-        <v>0.01645090586898508</v>
+        <v>0.01589227654184363</v>
       </c>
       <c r="L6">
-        <v>0.004551664187704753</v>
+        <v>0.00472338822329773</v>
       </c>
       <c r="M6">
-        <v>0.00426819162255944</v>
+        <v>0.004268367920857133</v>
       </c>
       <c r="N6">
-        <v>0.0001329345313793469</v>
+        <v>0.000132996264674296</v>
       </c>
       <c r="O6">
-        <v>0.0002712133661323418</v>
+        <v>0.000271346110374967</v>
       </c>
       <c r="P6">
-        <v>7.484154163786844E-05</v>
+        <v>7.483849490841139E-05</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03513768969557327</v>
+        <v>0.0326680037639456</v>
       </c>
       <c r="C7">
-        <v>0.03550391043462464</v>
+        <v>0.03305834423083141</v>
       </c>
       <c r="D7">
-        <v>0.0136200725351278</v>
+        <v>0.01286065483525095</v>
       </c>
       <c r="E7">
-        <v>0.01037631426506667</v>
+        <v>0.009619424893545643</v>
       </c>
       <c r="F7">
-        <v>0.00416910114410341</v>
+        <v>0.00416541964095665</v>
       </c>
       <c r="G7">
-        <v>0.0008061683810877209</v>
+        <v>0.0008066268429261915</v>
       </c>
       <c r="H7">
-        <v>0.01174567776931953</v>
+        <v>0.01137507739584681</v>
       </c>
       <c r="I7">
-        <v>0.007052918616289982</v>
+        <v>0.006675989911936745</v>
       </c>
       <c r="J7">
-        <v>0.00289973869107379</v>
+        <v>0.002522372761487279</v>
       </c>
       <c r="K7">
-        <v>0.01755603353408495</v>
+        <v>0.01625283389737219</v>
       </c>
       <c r="L7">
-        <v>0.004995702665280679</v>
+        <v>0.00465113258582833</v>
       </c>
       <c r="M7">
-        <v>0.004361896974932909</v>
+        <v>0.004361536086537599</v>
       </c>
       <c r="N7">
-        <v>0.000132801268906381</v>
+        <v>0.0001329170686555054</v>
       </c>
       <c r="O7">
-        <v>0.0002709269160006944</v>
+        <v>0.0002711796717666655</v>
       </c>
       <c r="P7">
-        <v>7.482156281721652E-05</v>
+        <v>7.482766655089648E-05</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03648368877566868</v>
+        <v>0.03439416286949514</v>
       </c>
       <c r="C8">
-        <v>0.03687408171905757</v>
+        <v>0.03480545207681094</v>
       </c>
       <c r="D8">
-        <v>0.01410906457827526</v>
+        <v>0.01372475045625896</v>
       </c>
       <c r="E8">
-        <v>0.01069429287496591</v>
+        <v>0.01031233432766174</v>
       </c>
       <c r="F8">
-        <v>0.004387122901393203</v>
+        <v>0.004383895018150534</v>
       </c>
       <c r="G8">
-        <v>0.0008140155006877282</v>
+        <v>0.0008143447236743685</v>
       </c>
       <c r="H8">
-        <v>0.01216933957500874</v>
+        <v>0.01198028861761045</v>
       </c>
       <c r="I8">
-        <v>0.00721707696372218</v>
+        <v>0.007026401474529584</v>
       </c>
       <c r="J8">
-        <v>0.002842771365578685</v>
+        <v>0.002653308128083245</v>
       </c>
       <c r="K8">
-        <v>0.01786855071374059</v>
+        <v>0.01712053248275154</v>
       </c>
       <c r="L8">
-        <v>0.005408966754572876</v>
+        <v>0.004890788055158819</v>
       </c>
       <c r="M8">
-        <v>0.004586996595134945</v>
+        <v>0.004586425991478882</v>
       </c>
       <c r="N8">
-        <v>0.0001326483560600745</v>
+        <v>0.0001327447735198349</v>
       </c>
       <c r="O8">
-        <v>0.0002706125432998827</v>
+        <v>0.0002708190720358709</v>
       </c>
       <c r="P8">
-        <v>7.47849803605812E-05</v>
+        <v>7.479415952176325E-05</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04146359089084667</v>
+        <v>0.03917409753442866</v>
       </c>
       <c r="C9">
-        <v>0.0419006221733832</v>
+        <v>0.03963331098763839</v>
       </c>
       <c r="D9">
-        <v>0.01560817845887554</v>
+        <v>0.01559561345342445</v>
       </c>
       <c r="E9">
-        <v>0.01171976012050309</v>
+        <v>0.01171034161562093</v>
       </c>
       <c r="F9">
-        <v>0.004990803245910096</v>
+        <v>0.004986817739317776</v>
       </c>
       <c r="G9">
-        <v>0.0008428317652931826</v>
+        <v>0.000843051562170581</v>
       </c>
       <c r="H9">
-        <v>0.01493120293147655</v>
+        <v>0.01365163097124972</v>
       </c>
       <c r="I9">
-        <v>0.009307041533692729</v>
+        <v>0.007994047085351268</v>
       </c>
       <c r="J9">
-        <v>0.004338309859775835</v>
+        <v>0.003015100424351263</v>
       </c>
       <c r="K9">
-        <v>0.02137950156688403</v>
+        <v>0.01951834909983775</v>
       </c>
       <c r="L9">
-        <v>0.006593245486771719</v>
+        <v>0.005550122392802951</v>
       </c>
       <c r="M9">
-        <v>0.005206378497442217</v>
+        <v>0.005205074074594983</v>
       </c>
       <c r="N9">
-        <v>0.0001321668194771422</v>
+        <v>0.0001322712407266244</v>
       </c>
       <c r="O9">
-        <v>0.000269556011545457</v>
+        <v>0.0002698207651989501</v>
       </c>
       <c r="P9">
-        <v>7.468291924870831E-05</v>
+        <v>7.470141286912374E-05</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06069525802884753</v>
+        <v>0.05586990195631554</v>
       </c>
       <c r="C10">
-        <v>0.0612186657659877</v>
+        <v>0.0564324157692158</v>
       </c>
       <c r="D10">
-        <v>0.02334645428109406</v>
+        <v>0.02198068994811426</v>
       </c>
       <c r="E10">
-        <v>0.0177910076678235</v>
+        <v>0.01643469920335092</v>
       </c>
       <c r="F10">
-        <v>0.007115659905696155</v>
+        <v>0.00710265491067255</v>
       </c>
       <c r="G10">
-        <v>0.001138852955847492</v>
+        <v>0.001136764856278747</v>
       </c>
       <c r="H10">
-        <v>0.0204703438697642</v>
+        <v>0.01952394353201757</v>
       </c>
       <c r="I10">
-        <v>0.0123557277705307</v>
+        <v>0.011393723865075</v>
       </c>
       <c r="J10">
-        <v>0.005246950411587095</v>
+        <v>0.004287724571311583</v>
       </c>
       <c r="K10">
-        <v>0.02948729192623064</v>
+        <v>0.02795355583225523</v>
       </c>
       <c r="L10">
-        <v>0.008528995795888771</v>
+        <v>0.007838750092100612</v>
       </c>
       <c r="M10">
-        <v>0.00735331435293645</v>
+        <v>0.007352069516963377</v>
       </c>
       <c r="N10">
-        <v>0.0001303647058135437</v>
+        <v>0.0001306014402133935</v>
       </c>
       <c r="O10">
-        <v>0.0002657930484799685</v>
+        <v>0.0002662982271371485</v>
       </c>
       <c r="P10">
-        <v>7.436055033002827E-05</v>
+        <v>7.437303420797743E-05</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07518267431807056</v>
+        <v>0.07146487212437833</v>
       </c>
       <c r="C11">
-        <v>0.07576457143701866</v>
+        <v>0.07207272844711747</v>
       </c>
       <c r="D11">
-        <v>0.029259853143564</v>
+        <v>0.02807181212630017</v>
       </c>
       <c r="E11">
-        <v>0.02221393884661176</v>
+        <v>0.02103561170457248</v>
       </c>
       <c r="F11">
-        <v>0.009014340638477072</v>
+        <v>0.009001103820661825</v>
       </c>
       <c r="G11">
-        <v>0.001441646212884166</v>
+        <v>0.001439481207236026</v>
       </c>
       <c r="H11">
-        <v>0.02557031925901044</v>
+        <v>0.02479898090138344</v>
       </c>
       <c r="I11">
-        <v>0.01522930986785169</v>
+        <v>0.01444769146599526</v>
       </c>
       <c r="J11">
-        <v>0.006207794188676968</v>
+        <v>0.005431938359487101</v>
       </c>
       <c r="K11">
-        <v>0.03726950400695555</v>
+        <v>0.03553689172247339</v>
       </c>
       <c r="L11">
-        <v>0.01177861906878317</v>
+        <v>0.009855066471985743</v>
       </c>
       <c r="M11">
-        <v>0.009247789332435962</v>
+        <v>0.009243385297843723</v>
       </c>
       <c r="N11">
-        <v>0.0001288644154715955</v>
+        <v>0.0001290526818862546</v>
       </c>
       <c r="O11">
-        <v>0.0002626303335996045</v>
+        <v>0.0002630392420547159</v>
       </c>
       <c r="P11">
-        <v>7.404037881512636E-05</v>
+        <v>7.407541740862767E-05</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1048177200562657</v>
+        <v>0.09733745981196563</v>
       </c>
       <c r="C12">
-        <v>0.1054288330581679</v>
+        <v>0.09798677277405626</v>
       </c>
       <c r="D12">
-        <v>0.03934128994829697</v>
+        <v>0.03844193346485969</v>
       </c>
       <c r="E12">
-        <v>0.02980666774708844</v>
+        <v>0.02893619427869669</v>
       </c>
       <c r="F12">
-        <v>0.0121864034500352</v>
+        <v>0.01214893302070078</v>
       </c>
       <c r="G12">
-        <v>0.001947959476654363</v>
+        <v>0.00194158056014311</v>
       </c>
       <c r="H12">
-        <v>0.03497955243689215</v>
+        <v>0.03374157261832563</v>
       </c>
       <c r="I12">
-        <v>0.02094265596519638</v>
+        <v>0.01971088656542573</v>
       </c>
       <c r="J12">
-        <v>0.008730334590375552</v>
+        <v>0.007527194287631167</v>
       </c>
       <c r="K12">
-        <v>0.052485515293805</v>
+        <v>0.04831808320282777</v>
       </c>
       <c r="L12">
-        <v>0.01522475201199944</v>
+        <v>0.01311950209346559</v>
       </c>
       <c r="M12">
-        <v>0.01231192197202728</v>
+        <v>0.01230534741374809</v>
       </c>
       <c r="N12">
-        <v>0.0001260505035441098</v>
+        <v>0.0001264373995170359</v>
       </c>
       <c r="O12">
-        <v>0.0002566699275153322</v>
+        <v>0.0002575359743708936</v>
       </c>
       <c r="P12">
-        <v>7.353800678539547E-05</v>
+        <v>7.357709801346382E-05</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1279058650966372</v>
+        <v>0.1177039307429002</v>
       </c>
       <c r="C13">
-        <v>0.1285335250751468</v>
+        <v>0.1183740626644167</v>
       </c>
       <c r="D13">
-        <v>0.04891389987200296</v>
+        <v>0.04611904494509513</v>
       </c>
       <c r="E13">
-        <v>0.03737482747678429</v>
+        <v>0.03462987869089699</v>
       </c>
       <c r="F13">
-        <v>0.01474534730667837</v>
+        <v>0.01467890707067652</v>
       </c>
       <c r="G13">
-        <v>0.002356361528501994</v>
+        <v>0.002345396004884598</v>
       </c>
       <c r="H13">
-        <v>0.04386704163861289</v>
+        <v>0.0406037878351375</v>
       </c>
       <c r="I13">
-        <v>0.02689125974733395</v>
+        <v>0.02359958172614537</v>
       </c>
       <c r="J13">
-        <v>0.01211661415492155</v>
+        <v>0.008862914781121733</v>
       </c>
       <c r="K13">
-        <v>0.06359279441450055</v>
+        <v>0.05864698864697949</v>
       </c>
       <c r="L13">
-        <v>0.01814165600672106</v>
+        <v>0.01601864446729622</v>
       </c>
       <c r="M13">
-        <v>0.01470880302679636</v>
+        <v>0.0147007415040016</v>
       </c>
       <c r="N13">
-        <v>0.0001237641099265537</v>
+        <v>0.0001243220782037587</v>
       </c>
       <c r="O13">
-        <v>0.000251843845203829</v>
+        <v>0.0002530811574772687</v>
       </c>
       <c r="P13">
-        <v>7.312685463233091E-05</v>
+        <v>7.316678606160575E-05</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1302514384855123</v>
+        <v>0.1191951197411917</v>
       </c>
       <c r="C14">
-        <v>0.1308795218990062</v>
+        <v>0.1198686912164777</v>
       </c>
       <c r="D14">
-        <v>0.04966627261070838</v>
+        <v>0.04645037410291313</v>
       </c>
       <c r="E14">
-        <v>0.03793882846515739</v>
+        <v>0.03477824263447695</v>
       </c>
       <c r="F14">
-        <v>0.01498576689962337</v>
+        <v>0.01491218619926229</v>
       </c>
       <c r="G14">
-        <v>0.002394778343929434</v>
+        <v>0.002382688589423297</v>
       </c>
       <c r="H14">
-        <v>0.04415499417889958</v>
+        <v>0.04144403062764149</v>
       </c>
       <c r="I14">
-        <v>0.02688435215315494</v>
+        <v>0.0241731361215379</v>
       </c>
       <c r="J14">
-        <v>0.01186269114585117</v>
+        <v>0.009202454413198448</v>
       </c>
       <c r="K14">
-        <v>0.06475843860783796</v>
+        <v>0.05958444077670695</v>
       </c>
       <c r="L14">
-        <v>0.01748429123223585</v>
+        <v>0.0160798477644401</v>
       </c>
       <c r="M14">
-        <v>0.01492576555906557</v>
+        <v>0.01492033592611502</v>
       </c>
       <c r="N14">
-        <v>0.0001235397292561384</v>
+        <v>0.0001241469341098817</v>
       </c>
       <c r="O14">
-        <v>0.0002513767294831074</v>
+        <v>0.0002527022549279098</v>
       </c>
       <c r="P14">
-        <v>7.31058050519842E-05</v>
+        <v>7.313229806094251E-05</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1276280680678261</v>
+        <v>0.1178492415746915</v>
       </c>
       <c r="C15">
-        <v>0.1282583511675575</v>
+        <v>0.1185205893909659</v>
       </c>
       <c r="D15">
-        <v>0.04823785418571899</v>
+        <v>0.04585662940304791</v>
       </c>
       <c r="E15">
-        <v>0.03666711732825268</v>
+        <v>0.0343341732561039</v>
       </c>
       <c r="F15">
-        <v>0.01478470764536071</v>
+        <v>0.01472115998522861</v>
       </c>
       <c r="G15">
-        <v>0.002362752929989781</v>
+        <v>0.002352164289714932</v>
       </c>
       <c r="H15">
-        <v>0.04359095864978693</v>
+        <v>0.04091086507510973</v>
       </c>
       <c r="I15">
-        <v>0.02655544327056542</v>
+        <v>0.02386423007897512</v>
       </c>
       <c r="J15">
-        <v>0.01173628979519684</v>
+        <v>0.009086471565676803</v>
       </c>
       <c r="K15">
-        <v>0.06375000282064303</v>
+        <v>0.05862648241493338</v>
       </c>
       <c r="L15">
-        <v>0.01836527199162356</v>
+        <v>0.01623658626511357</v>
       </c>
       <c r="M15">
-        <v>0.01475048486103027</v>
+        <v>0.01474237987269506</v>
       </c>
       <c r="N15">
-        <v>0.000123766663786687</v>
+        <v>0.0001242988253500039</v>
       </c>
       <c r="O15">
-        <v>0.0002518425743946994</v>
+        <v>0.0002530255837652465</v>
       </c>
       <c r="P15">
-        <v>7.311644945584129E-05</v>
+        <v>7.315647759402776E-05</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1269515640487345</v>
+        <v>0.1173949031291493</v>
       </c>
       <c r="C16">
-        <v>0.1275842152939898</v>
+        <v>0.1180682142179945</v>
       </c>
       <c r="D16">
-        <v>0.04840641020687472</v>
+        <v>0.04583085545378908</v>
       </c>
       <c r="E16">
-        <v>0.03684343588822264</v>
+        <v>0.03431488796501312</v>
       </c>
       <c r="F16">
-        <v>0.01477505341413246</v>
+        <v>0.01471288124819306</v>
       </c>
       <c r="G16">
-        <v>0.002361066604984562</v>
+        <v>0.002350843014575769</v>
       </c>
       <c r="H16">
-        <v>0.04375406706399927</v>
+        <v>0.04088770899664749</v>
       </c>
       <c r="I16">
-        <v>0.02673741934730545</v>
+        <v>0.02385081226741723</v>
       </c>
       <c r="J16">
-        <v>0.01193100468973606</v>
+        <v>0.009081416402552864</v>
       </c>
       <c r="K16">
-        <v>0.06292884458857873</v>
+        <v>0.05859318370600083</v>
       </c>
       <c r="L16">
-        <v>0.0187202738479471</v>
+        <v>0.01588290740108058</v>
       </c>
       <c r="M16">
-        <v>0.01474645944348496</v>
+        <v>0.01473565712451135</v>
       </c>
       <c r="N16">
-        <v>0.000123803657769995</v>
+        <v>0.0001243247476517941</v>
       </c>
       <c r="O16">
-        <v>0.0002519306979594555</v>
+        <v>0.0002530789515422115</v>
       </c>
       <c r="P16">
-        <v>7.31106045680603E-05</v>
+        <v>7.316397399160666E-05</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1303167877246414</v>
+        <v>0.1178047595745121</v>
       </c>
       <c r="C17">
-        <v>0.1309360722406612</v>
+        <v>0.1184749193573941</v>
       </c>
       <c r="D17">
-        <v>0.04900388481585741</v>
+        <v>0.04615939239573542</v>
       </c>
       <c r="E17">
-        <v>0.03744299030016577</v>
+        <v>0.03466006256027</v>
       </c>
       <c r="F17">
-        <v>0.01477319032353835</v>
+        <v>0.01469187793856345</v>
       </c>
       <c r="G17">
-        <v>0.002360864608885429</v>
+        <v>0.002347409161253394</v>
       </c>
       <c r="H17">
-        <v>0.04317431004506134</v>
+        <v>0.04063892865959178</v>
       </c>
       <c r="I17">
-        <v>0.02613939699845295</v>
+        <v>0.0236199358106367</v>
       </c>
       <c r="J17">
-        <v>0.01132796881147036</v>
+        <v>0.008870547579154228</v>
       </c>
       <c r="K17">
-        <v>0.06409859827886509</v>
+        <v>0.05831516885860519</v>
       </c>
       <c r="L17">
-        <v>0.01851464765022538</v>
+        <v>0.01585793809079595</v>
       </c>
       <c r="M17">
-        <v>0.01472234006571372</v>
+        <v>0.01471224240189893</v>
       </c>
       <c r="N17">
-        <v>0.0001236300417758947</v>
+        <v>0.0001243115689094332</v>
       </c>
       <c r="O17">
-        <v>0.0002515762247876438</v>
+        <v>0.0002530652283081795</v>
       </c>
       <c r="P17">
-        <v>7.311801266836435E-05</v>
+        <v>7.316798481924135E-05</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1110752385324066</v>
+        <v>0.09844290383206994</v>
       </c>
       <c r="C18">
-        <v>0.111665201891422</v>
+        <v>0.09909215761848465</v>
       </c>
       <c r="D18">
-        <v>0.04116182088803463</v>
+        <v>0.03860204829495511</v>
       </c>
       <c r="E18">
-        <v>0.03151732329158143</v>
+        <v>0.02900692583451369</v>
       </c>
       <c r="F18">
-        <v>0.01232816590532197</v>
+        <v>0.01226276461556299</v>
       </c>
       <c r="G18">
-        <v>0.001970745508765229</v>
+        <v>0.001959740637667619</v>
       </c>
       <c r="H18">
-        <v>0.03671143472225076</v>
+        <v>0.03387256898817295</v>
       </c>
       <c r="I18">
-        <v>0.02255225938208354</v>
+        <v>0.01970143414728774</v>
       </c>
       <c r="J18">
-        <v>0.01021058723470184</v>
+        <v>0.007401286863781643</v>
       </c>
       <c r="K18">
-        <v>0.05558703645940391</v>
+        <v>0.0485848037730211</v>
       </c>
       <c r="L18">
-        <v>0.01623799402585845</v>
+        <v>0.01323494816839315</v>
       </c>
       <c r="M18">
-        <v>0.01242309041945256</v>
+        <v>0.01241363320927955</v>
       </c>
       <c r="N18">
-        <v>0.0001256683006550234</v>
+        <v>0.0001263353302824092</v>
       </c>
       <c r="O18">
-        <v>0.0002558364850337302</v>
+        <v>0.0002573252106441037</v>
       </c>
       <c r="P18">
-        <v>7.350338627984306E-05</v>
+        <v>7.355910305930269E-05</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.07961443527609766</v>
+        <v>0.06484319718756733</v>
       </c>
       <c r="C19">
-        <v>0.08010739471911141</v>
+        <v>0.06542422271516275</v>
       </c>
       <c r="D19">
-        <v>0.02900830896895741</v>
+        <v>0.02521290589868276</v>
       </c>
       <c r="E19">
-        <v>0.0226601268577521</v>
+        <v>0.01889844419476851</v>
       </c>
       <c r="F19">
-        <v>0.008128755415856774</v>
+        <v>0.00808163466544546</v>
       </c>
       <c r="G19">
-        <v>0.001300704960382588</v>
+        <v>0.001292866065110742</v>
       </c>
       <c r="H19">
-        <v>0.02685280149336599</v>
+        <v>0.02224372158747727</v>
       </c>
       <c r="I19">
-        <v>0.0176554721244142</v>
+        <v>0.01296827717237096</v>
       </c>
       <c r="J19">
-        <v>0.009561848628346629</v>
+        <v>0.004877572795502295</v>
       </c>
       <c r="K19">
-        <v>0.03980469876391084</v>
+        <v>0.03204780489511286</v>
       </c>
       <c r="L19">
-        <v>0.01188095088808964</v>
+        <v>0.009051192992584204</v>
       </c>
       <c r="M19">
-        <v>0.008334698974515846</v>
+        <v>0.008328926141759297</v>
       </c>
       <c r="N19">
-        <v>0.0001290148711858631</v>
+        <v>0.000129761651566815</v>
       </c>
       <c r="O19">
-        <v>0.0002628549989660949</v>
+        <v>0.0002645320115687198</v>
       </c>
       <c r="P19">
-        <v>7.416619384979128E-05</v>
+        <v>7.421721406060053E-05</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06851476505605551</v>
+        <v>0.05681534766988509</v>
       </c>
       <c r="C20">
-        <v>0.06898208041529921</v>
+        <v>0.05735945592554729</v>
       </c>
       <c r="D20">
-        <v>0.02445234068811702</v>
+        <v>0.02225649932992793</v>
       </c>
       <c r="E20">
-        <v>0.01895716594988657</v>
+        <v>0.016784113998214</v>
       </c>
       <c r="F20">
-        <v>0.007040464086440278</v>
+        <v>0.007009200259149507</v>
       </c>
       <c r="G20">
-        <v>0.001127077383584602</v>
+        <v>0.001121865360260789</v>
       </c>
       <c r="H20">
-        <v>0.0226768940715124</v>
+        <v>0.01944552824208204</v>
       </c>
       <c r="I20">
-        <v>0.01471915279786463</v>
+        <v>0.01143084747689338</v>
       </c>
       <c r="J20">
-        <v>0.00771019557680435</v>
+        <v>0.004420788934432569</v>
       </c>
       <c r="K20">
-        <v>0.03370744102934958</v>
+        <v>0.02813373332905112</v>
       </c>
       <c r="L20">
-        <v>0.01146576075118269</v>
+        <v>0.008077093590196831</v>
       </c>
       <c r="M20">
-        <v>0.007260015419637235</v>
+        <v>0.00725406343017514</v>
       </c>
       <c r="N20">
-        <v>0.0001300198180936306</v>
+        <v>0.0001305949338629853</v>
       </c>
       <c r="O20">
-        <v>0.0002649965926608502</v>
+        <v>0.0002662857360325753</v>
       </c>
       <c r="P20">
-        <v>7.432165627573941E-05</v>
+        <v>7.4382114112528E-05</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.05990288654718372</v>
+        <v>0.04693542857841336</v>
       </c>
       <c r="C21">
-        <v>0.06031601148005783</v>
+        <v>0.04743875509500102</v>
       </c>
       <c r="D21">
-        <v>0.02050217885404205</v>
+        <v>0.01833005999297546</v>
       </c>
       <c r="E21">
-        <v>0.0159053043428835</v>
+        <v>0.01375387609911258</v>
       </c>
       <c r="F21">
-        <v>0.005895565286932594</v>
+        <v>0.005867276045806563</v>
       </c>
       <c r="G21">
-        <v>0.0009445910614276715</v>
+        <v>0.0009398129459618425</v>
       </c>
       <c r="H21">
-        <v>0.01948798119172501</v>
+        <v>0.01627463626051213</v>
       </c>
       <c r="I21">
-        <v>0.01286208012281347</v>
+        <v>0.009594555490901</v>
       </c>
       <c r="J21">
-        <v>0.007002648833790743</v>
+        <v>0.003732630246703426</v>
       </c>
       <c r="K21">
-        <v>0.03044605027561431</v>
+        <v>0.02339326070511741</v>
       </c>
       <c r="L21">
-        <v>0.01098067612848322</v>
+        <v>0.006676743476425826</v>
       </c>
       <c r="M21">
-        <v>0.00610788275588214</v>
+        <v>0.006101592452877895</v>
       </c>
       <c r="N21">
-        <v>0.0001309167936501519</v>
+        <v>0.000131541804507628</v>
       </c>
       <c r="O21">
-        <v>0.0002668622574420601</v>
+        <v>0.0002682764502498639</v>
       </c>
       <c r="P21">
-        <v>7.448646450308727E-05</v>
+        <v>7.456247354819372E-05</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.05264528378985167</v>
+        <v>0.04359890576733012</v>
       </c>
       <c r="C22">
-        <v>0.0530564370232427</v>
+        <v>0.04407966757570368</v>
       </c>
       <c r="D22">
-        <v>0.01897435021691321</v>
+        <v>0.01721748025285889</v>
       </c>
       <c r="E22">
-        <v>0.01471377162106531</v>
+        <v>0.01296985787001897</v>
       </c>
       <c r="F22">
-        <v>0.005466848820221845</v>
+        <v>0.005448737095347317</v>
       </c>
       <c r="G22">
-        <v>0.0008761549562364814</v>
+        <v>0.0008730784577115582</v>
       </c>
       <c r="H22">
-        <v>0.01754645083608918</v>
+        <v>0.01511296607390038</v>
       </c>
       <c r="I22">
-        <v>0.0114014785837813</v>
+        <v>0.00892182119054746</v>
       </c>
       <c r="J22">
-        <v>0.005966623401095891</v>
+        <v>0.00348067457143449</v>
       </c>
       <c r="K22">
-        <v>0.02720946873696435</v>
+        <v>0.02172496462800463</v>
       </c>
       <c r="L22">
-        <v>0.01016337102954137</v>
+        <v>0.006222778131365411</v>
       </c>
       <c r="M22">
-        <v>0.005680988286903327</v>
+        <v>0.005675652531885528</v>
       </c>
       <c r="N22">
-        <v>0.0001314396818947545</v>
+        <v>0.000131871986480092</v>
       </c>
       <c r="O22">
-        <v>0.0002679875334317464</v>
+        <v>0.0002689751039866633</v>
       </c>
       <c r="P22">
-        <v>7.45579350339088E-05</v>
+        <v>7.462726264039137E-05</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.04996039117330201</v>
+        <v>0.04266225022547473</v>
       </c>
       <c r="C23">
-        <v>0.05037242350136961</v>
+        <v>0.04313268774431645</v>
       </c>
       <c r="D23">
-        <v>0.01795407610864708</v>
+        <v>0.01715447479214942</v>
       </c>
       <c r="E23">
-        <v>0.01380696967233712</v>
+        <v>0.01301781039795442</v>
       </c>
       <c r="F23">
-        <v>0.00532158850893915</v>
+        <v>0.005307617554458563</v>
       </c>
       <c r="G23">
-        <v>0.0008619243871865189</v>
+        <v>0.0008623013621899729</v>
       </c>
       <c r="H23">
-        <v>0.01658735651659997</v>
+        <v>0.01454112063201771</v>
       </c>
       <c r="I23">
-        <v>0.01059733928339906</v>
+        <v>0.008508982021864417</v>
       </c>
       <c r="J23">
-        <v>0.005303365844224028</v>
+        <v>0.003207725355268143</v>
       </c>
       <c r="K23">
-        <v>0.02549902978105374</v>
+        <v>0.02097852717253597</v>
       </c>
       <c r="L23">
-        <v>0.008550107163682787</v>
+        <v>0.00624128294447595</v>
       </c>
       <c r="M23">
-        <v>0.005534528888344053</v>
+        <v>0.005531482648580483</v>
       </c>
       <c r="N23">
-        <v>0.0001316298381824063</v>
+        <v>0.0001319725805952899</v>
       </c>
       <c r="O23">
-        <v>0.0002684032779612492</v>
+        <v>0.0002691991661670869</v>
       </c>
       <c r="P23">
-        <v>7.460543179025254E-05</v>
+        <v>7.464605769500148E-05</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.04427934067827034</v>
+        <v>0.03969401074425189</v>
       </c>
       <c r="C24">
-        <v>0.04468829866035904</v>
+        <v>0.04014334120550188</v>
       </c>
       <c r="D24">
-        <v>0.01684692745605495</v>
+        <v>0.01606784931591839</v>
       </c>
       <c r="E24">
-        <v>0.01297882129295969</v>
+        <v>0.01220560239569153</v>
       </c>
       <c r="F24">
-        <v>0.004966009064355682</v>
+        <v>0.004957855480042131</v>
       </c>
       <c r="G24">
-        <v>0.0008408592477180638</v>
+        <v>0.0008412843066395707</v>
       </c>
       <c r="H24">
-        <v>0.01413608482989103</v>
+        <v>0.01375085608398539</v>
       </c>
       <c r="I24">
-        <v>0.008519538350907355</v>
+        <v>0.008132998811769798</v>
       </c>
       <c r="J24">
-        <v>0.003567704339059142</v>
+        <v>0.003185374204916584</v>
       </c>
       <c r="K24">
-        <v>0.02128051581592719</v>
+        <v>0.01958629019408989</v>
       </c>
       <c r="L24">
-        <v>0.007271276355260371</v>
+        <v>0.005688351290363179</v>
       </c>
       <c r="M24">
-        <v>0.00517610538261677</v>
+        <v>0.005174150168170683</v>
       </c>
       <c r="N24">
-        <v>0.0001320420972924108</v>
+        <v>0.0001322567562667339</v>
       </c>
       <c r="O24">
-        <v>0.0002693337354372687</v>
+        <v>0.0002697944772947412</v>
       </c>
       <c r="P24">
-        <v>7.467515466402279E-05</v>
+        <v>7.47030358210617E-05</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.04035617165190263</v>
+        <v>0.03788097383823614</v>
       </c>
       <c r="C25">
-        <v>0.04077579814513723</v>
+        <v>0.03832469468539071</v>
       </c>
       <c r="D25">
-        <v>0.01559224716874709</v>
+        <v>0.01501665857701061</v>
       </c>
       <c r="E25">
-        <v>0.01185024328363584</v>
+        <v>0.01127770518431228</v>
       </c>
       <c r="F25">
-        <v>0.004804547082857461</v>
+        <v>0.004800288775130362</v>
       </c>
       <c r="G25">
-        <v>0.0008327333505543704</v>
+        <v>0.0008330090713674435</v>
       </c>
       <c r="H25">
-        <v>0.01368752074842997</v>
+        <v>0.01331426051568793</v>
       </c>
       <c r="I25">
-        <v>0.008259451789044005</v>
+        <v>0.007880154982955058</v>
       </c>
       <c r="J25">
-        <v>0.003469931664583698</v>
+        <v>0.003090740055681167</v>
       </c>
       <c r="K25">
-        <v>0.01989726180373189</v>
+        <v>0.01895980084502903</v>
       </c>
       <c r="L25">
-        <v>0.006213642478114432</v>
+        <v>0.005346136865321651</v>
       </c>
       <c r="M25">
-        <v>0.005014729277344864</v>
+        <v>0.005013684665593314</v>
       </c>
       <c r="N25">
-        <v>0.0001322936375985079</v>
+        <v>0.0001324096064943143</v>
       </c>
       <c r="O25">
-        <v>0.0002698569600373036</v>
+        <v>0.0002701069702430899</v>
       </c>
       <c r="P25">
-        <v>7.471482012356081E-05</v>
+        <v>7.473019531846173E-05</v>
       </c>
     </row>
   </sheetData>

--- a/PRO1/step_3/results/res_line/i_ka.xlsx
+++ b/PRO1/step_3/results/res_line/i_ka.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03569410473533174</v>
+        <v>0.03902682960968968</v>
       </c>
       <c r="C2">
-        <v>0.03611975863727646</v>
+        <v>0.03924649730116982</v>
       </c>
       <c r="D2">
-        <v>0.01423421537065035</v>
+        <v>0.01503542413781515</v>
       </c>
       <c r="E2">
-        <v>0.01069302070356844</v>
+        <v>0.01152128914514254</v>
       </c>
       <c r="F2">
-        <v>0.004548135111106951</v>
+        <v>0.004514507554415239</v>
       </c>
       <c r="G2">
-        <v>0.0008211088683254546</v>
+        <v>0.001848064567872455</v>
       </c>
       <c r="H2">
-        <v>0.01243545789372306</v>
+        <v>0.01376151176154272</v>
       </c>
       <c r="I2">
-        <v>0.007289933459872551</v>
+        <v>0.008695915946467889</v>
       </c>
       <c r="J2">
-        <v>0.002751810508117191</v>
+        <v>0.002684477761294671</v>
       </c>
       <c r="K2">
-        <v>0.01777333703343486</v>
+        <v>0.02016195440643796</v>
       </c>
       <c r="L2">
-        <v>0.005070711050116914</v>
+        <v>0.006823037136460547</v>
       </c>
       <c r="M2">
-        <v>0.004755254709870565</v>
+        <v>0.004757246313288563</v>
       </c>
       <c r="N2">
-        <v>0.0001326160060424513</v>
+        <v>0.0001335914453656903</v>
       </c>
       <c r="O2">
-        <v>0.000270547589786186</v>
+        <v>0.0002724946966655154</v>
       </c>
       <c r="P2">
-        <v>7.476893230069664E-05</v>
+        <v>7.473803627317578E-05</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03430607653350725</v>
+        <v>0.03559772741546199</v>
       </c>
       <c r="C3">
-        <v>0.03471635108505955</v>
+        <v>0.03580742994827562</v>
       </c>
       <c r="D3">
-        <v>0.01369020755328895</v>
+        <v>0.01393442316741333</v>
       </c>
       <c r="E3">
-        <v>0.01028652327547427</v>
+        <v>0.0105566612307521</v>
       </c>
       <c r="F3">
-        <v>0.004372757439674906</v>
+        <v>0.004340125695402125</v>
       </c>
       <c r="G3">
-        <v>0.0008139156045240203</v>
+        <v>0.001139201043324526</v>
       </c>
       <c r="H3">
-        <v>0.01194942575818411</v>
+        <v>0.01255159250067956</v>
       </c>
       <c r="I3">
-        <v>0.007008532433137546</v>
+        <v>0.007670218762638448</v>
       </c>
       <c r="J3">
-        <v>0.002646629985005719</v>
+        <v>0.002579564507316692</v>
       </c>
       <c r="K3">
-        <v>0.01707627549568879</v>
+        <v>0.01799334064720196</v>
       </c>
       <c r="L3">
-        <v>0.004878578457714776</v>
+        <v>0.006094604496499552</v>
       </c>
       <c r="M3">
-        <v>0.00457496898954604</v>
+        <v>0.004576299365467391</v>
       </c>
       <c r="N3">
-        <v>0.000132753499455701</v>
+        <v>0.0001337386638257793</v>
       </c>
       <c r="O3">
-        <v>0.0002708374694375241</v>
+        <v>0.0002728298690667319</v>
       </c>
       <c r="P3">
-        <v>7.479586921936778E-05</v>
+        <v>7.477441789503361E-05</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03268703837675473</v>
+        <v>0.0340330538542976</v>
       </c>
       <c r="C4">
-        <v>0.03308208929779875</v>
+        <v>0.03438380262236101</v>
       </c>
       <c r="D4">
-        <v>0.01294161650888378</v>
+        <v>0.01319580290950583</v>
       </c>
       <c r="E4">
-        <v>0.009679916671174781</v>
+        <v>0.009957644866576538</v>
       </c>
       <c r="F4">
-        <v>0.004191538704518301</v>
+        <v>0.004161886534966104</v>
       </c>
       <c r="G4">
-        <v>0.0008075120882521903</v>
+        <v>0.001125995902353563</v>
       </c>
       <c r="H4">
-        <v>0.01144742565763122</v>
+        <v>0.01223887852702069</v>
       </c>
       <c r="I4">
-        <v>0.006717884898974307</v>
+        <v>0.007569782753015364</v>
       </c>
       <c r="J4">
-        <v>0.002538026365470834</v>
+        <v>0.002472730394089137</v>
       </c>
       <c r="K4">
-        <v>0.0163565378432101</v>
+        <v>0.01747020670372502</v>
       </c>
       <c r="L4">
-        <v>0.004680106795690076</v>
+        <v>0.005365912978247063</v>
       </c>
       <c r="M4">
-        <v>0.00438872593466496</v>
+        <v>0.004389447051039501</v>
       </c>
       <c r="N4">
-        <v>0.0001329048486303002</v>
+        <v>0.0001338390057910684</v>
       </c>
       <c r="O4">
-        <v>0.0002711533591635934</v>
+        <v>0.0002730361001889892</v>
       </c>
       <c r="P4">
-        <v>7.48236213506826E-05</v>
+        <v>7.481150120250108E-05</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03267987457647639</v>
+        <v>0.03345840534253136</v>
       </c>
       <c r="C5">
-        <v>0.03307483495708309</v>
+        <v>0.03344723804741141</v>
       </c>
       <c r="D5">
-        <v>0.01293880364735743</v>
+        <v>0.01281988173761261</v>
       </c>
       <c r="E5">
-        <v>0.009677815015948362</v>
+        <v>0.009582781097683537</v>
       </c>
       <c r="F5">
-        <v>0.004190631304177517</v>
+        <v>0.004160345473080081</v>
       </c>
       <c r="G5">
-        <v>0.0008074823860032334</v>
+        <v>0.0009702736071313027</v>
       </c>
       <c r="H5">
-        <v>0.01144491182315433</v>
+        <v>0.0118735496442063</v>
       </c>
       <c r="I5">
-        <v>0.006716429393511635</v>
+        <v>0.007196470654219304</v>
       </c>
       <c r="J5">
-        <v>0.002537482578295885</v>
+        <v>0.002471724251331188</v>
       </c>
       <c r="K5">
-        <v>0.01635293431208325</v>
+        <v>0.01691326785278151</v>
       </c>
       <c r="L5">
-        <v>0.004679110507770502</v>
+        <v>0.00536491901639594</v>
       </c>
       <c r="M5">
-        <v>0.004387791006374493</v>
+        <v>0.004388511967307787</v>
       </c>
       <c r="N5">
-        <v>0.0001329055583690995</v>
+        <v>0.0001338600319039669</v>
       </c>
       <c r="O5">
-        <v>0.0002711548556398388</v>
+        <v>0.0002730875389867846</v>
       </c>
       <c r="P5">
-        <v>7.482376047368589E-05</v>
+        <v>7.481164040151961E-05</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03176445909833073</v>
+        <v>0.03223005780301419</v>
       </c>
       <c r="C6">
-        <v>0.03214749768937171</v>
+        <v>0.03253194391766632</v>
       </c>
       <c r="D6">
-        <v>0.01257919029890575</v>
+        <v>0.01283657262294057</v>
       </c>
       <c r="E6">
-        <v>0.009409129059540028</v>
+        <v>0.009689220655292942</v>
       </c>
       <c r="F6">
-        <v>0.004074609511239968</v>
+        <v>0.004046006468717785</v>
       </c>
       <c r="G6">
-        <v>0.0008038978758277091</v>
+        <v>0.001117752030212182</v>
       </c>
       <c r="H6">
-        <v>0.0111235162150239</v>
+        <v>0.01101950204316252</v>
       </c>
       <c r="I6">
-        <v>0.006530340208434252</v>
+        <v>0.00645999624987141</v>
       </c>
       <c r="J6">
-        <v>0.002467965983576645</v>
+        <v>0.002403010335173048</v>
       </c>
       <c r="K6">
-        <v>0.01589227654184363</v>
+        <v>0.01609306191775007</v>
       </c>
       <c r="L6">
-        <v>0.00472338822329773</v>
+        <v>0.005414058354382416</v>
       </c>
       <c r="M6">
-        <v>0.004268367920857133</v>
+        <v>0.004269071253452188</v>
       </c>
       <c r="N6">
-        <v>0.000132996264674296</v>
+        <v>0.0001339235036769976</v>
       </c>
       <c r="O6">
-        <v>0.000271346110374967</v>
+        <v>0.0002732412253266975</v>
       </c>
       <c r="P6">
-        <v>7.483849490841139E-05</v>
+        <v>7.482634258904988E-05</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0326680037639456</v>
+        <v>0.03572093950523437</v>
       </c>
       <c r="C7">
-        <v>0.03305834423083141</v>
+        <v>0.03567186172276316</v>
       </c>
       <c r="D7">
-        <v>0.01286065483525095</v>
+        <v>0.01386525471187691</v>
       </c>
       <c r="E7">
-        <v>0.009619424893545643</v>
+        <v>0.01064681505167334</v>
       </c>
       <c r="F7">
-        <v>0.00416541964095665</v>
+        <v>0.004137262469685333</v>
       </c>
       <c r="G7">
-        <v>0.0008066268429261915</v>
+        <v>0.002166468880302501</v>
       </c>
       <c r="H7">
-        <v>0.01137507739584681</v>
+        <v>0.01181018325328155</v>
       </c>
       <c r="I7">
-        <v>0.006675989911936745</v>
+        <v>0.007159833228049182</v>
       </c>
       <c r="J7">
-        <v>0.002522372761487279</v>
+        <v>0.002457938775081062</v>
       </c>
       <c r="K7">
-        <v>0.01625283389737219</v>
+        <v>0.01811037041478966</v>
       </c>
       <c r="L7">
-        <v>0.00465113258582833</v>
+        <v>0.007315158174512036</v>
       </c>
       <c r="M7">
-        <v>0.004361536086537599</v>
+        <v>0.004364297175186183</v>
       </c>
       <c r="N7">
-        <v>0.0001329170686555054</v>
+        <v>0.0001338094289094665</v>
       </c>
       <c r="O7">
-        <v>0.0002711796717666655</v>
+        <v>0.0002729805934097539</v>
       </c>
       <c r="P7">
-        <v>7.482766655089648E-05</v>
+        <v>7.478099319395748E-05</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03439416286949514</v>
+        <v>0.03662714892227151</v>
       </c>
       <c r="C8">
-        <v>0.03480545207681094</v>
+        <v>0.03664223747689373</v>
       </c>
       <c r="D8">
-        <v>0.01372475045625896</v>
+        <v>0.01415691543945689</v>
       </c>
       <c r="E8">
-        <v>0.01031233432766174</v>
+        <v>0.01077012968778765</v>
       </c>
       <c r="F8">
-        <v>0.004383895018150534</v>
+        <v>0.004351768556982685</v>
       </c>
       <c r="G8">
-        <v>0.0008143447236743685</v>
+        <v>0.001830293125498956</v>
       </c>
       <c r="H8">
-        <v>0.01198028861761045</v>
+        <v>0.01240417225841299</v>
       </c>
       <c r="I8">
-        <v>0.007026401474529584</v>
+        <v>0.007503995277054129</v>
       </c>
       <c r="J8">
-        <v>0.002653308128083245</v>
+        <v>0.00258658964582716</v>
       </c>
       <c r="K8">
-        <v>0.01712053248275154</v>
+        <v>0.01859141166787264</v>
       </c>
       <c r="L8">
-        <v>0.004890788055158819</v>
+        <v>0.007187422374311404</v>
       </c>
       <c r="M8">
-        <v>0.004586425991478882</v>
+        <v>0.004588935939806171</v>
       </c>
       <c r="N8">
-        <v>0.0001327447735198349</v>
+        <v>0.0001337120554290995</v>
       </c>
       <c r="O8">
-        <v>0.0002708190720358709</v>
+        <v>0.0002727712240424973</v>
       </c>
       <c r="P8">
-        <v>7.479415952176325E-05</v>
+        <v>7.475379931224395E-05</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03917409753442866</v>
+        <v>0.04182428766500059</v>
       </c>
       <c r="C9">
-        <v>0.03963331098763839</v>
+        <v>0.04176423417855386</v>
       </c>
       <c r="D9">
-        <v>0.01559561345342445</v>
+        <v>0.0158113732797142</v>
       </c>
       <c r="E9">
-        <v>0.01171034161562093</v>
+        <v>0.01195928164314312</v>
       </c>
       <c r="F9">
-        <v>0.004986817739317776</v>
+        <v>0.004945007924413932</v>
       </c>
       <c r="G9">
-        <v>0.000843051562170581</v>
+        <v>0.001714882905457781</v>
       </c>
       <c r="H9">
-        <v>0.01365163097124972</v>
+        <v>0.01477233889748813</v>
       </c>
       <c r="I9">
-        <v>0.007994047085351268</v>
+        <v>0.009200972738901443</v>
       </c>
       <c r="J9">
-        <v>0.003015100424351263</v>
+        <v>0.002943020169404376</v>
       </c>
       <c r="K9">
-        <v>0.01951834909983775</v>
+        <v>0.02150284157368761</v>
       </c>
       <c r="L9">
-        <v>0.005550122392802951</v>
+        <v>0.007479729649734884</v>
       </c>
       <c r="M9">
-        <v>0.005205074074594983</v>
+        <v>0.005207483998391873</v>
       </c>
       <c r="N9">
-        <v>0.0001322712407266244</v>
+        <v>0.0001333766510769406</v>
       </c>
       <c r="O9">
-        <v>0.0002698207651989501</v>
+        <v>0.0002720340961367232</v>
       </c>
       <c r="P9">
-        <v>7.470141286912374E-05</v>
+        <v>7.466725299165598E-05</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05586990195631554</v>
+        <v>0.05913207224664675</v>
       </c>
       <c r="C10">
-        <v>0.0564324157692158</v>
+        <v>0.05876111916692243</v>
       </c>
       <c r="D10">
-        <v>0.02198068994811426</v>
+        <v>0.02243265882460055</v>
       </c>
       <c r="E10">
-        <v>0.01643469920335092</v>
+        <v>0.01695557426059896</v>
       </c>
       <c r="F10">
-        <v>0.00710265491067255</v>
+        <v>0.007015748227296891</v>
       </c>
       <c r="G10">
-        <v>0.001136764856278747</v>
+        <v>0.0022031539082264</v>
       </c>
       <c r="H10">
-        <v>0.01952394353201757</v>
+        <v>0.02052215100635488</v>
       </c>
       <c r="I10">
-        <v>0.011393723865075</v>
+        <v>0.01253542124014352</v>
       </c>
       <c r="J10">
-        <v>0.004287724571311583</v>
+        <v>0.004189218150913197</v>
       </c>
       <c r="K10">
-        <v>0.02795355583225523</v>
+        <v>0.02994369019016568</v>
       </c>
       <c r="L10">
-        <v>0.007838750092100612</v>
+        <v>0.01102831409612331</v>
       </c>
       <c r="M10">
-        <v>0.007352069516963377</v>
+        <v>0.00735780373186646</v>
       </c>
       <c r="N10">
-        <v>0.0001306014402133935</v>
+        <v>0.0001322056945130023</v>
       </c>
       <c r="O10">
-        <v>0.0002662982271371485</v>
+        <v>0.0002695342500867274</v>
       </c>
       <c r="P10">
-        <v>7.437303420797743E-05</v>
+        <v>7.431556308849236E-05</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07146487212437833</v>
+        <v>0.07441578365426425</v>
       </c>
       <c r="C11">
-        <v>0.07207272844711747</v>
+        <v>0.07490282136654593</v>
       </c>
       <c r="D11">
-        <v>0.02807181212630017</v>
+        <v>0.02853939997004127</v>
       </c>
       <c r="E11">
-        <v>0.02103561170457248</v>
+        <v>0.0216166986759754</v>
       </c>
       <c r="F11">
-        <v>0.009001103820661825</v>
+        <v>0.008857686788863261</v>
       </c>
       <c r="G11">
-        <v>0.001439481207236026</v>
+        <v>0.002496096945379292</v>
       </c>
       <c r="H11">
-        <v>0.02479898090138344</v>
+        <v>0.02656895197741308</v>
       </c>
       <c r="I11">
-        <v>0.01444769146599526</v>
+        <v>0.01645729975490528</v>
       </c>
       <c r="J11">
-        <v>0.005431938359487101</v>
+        <v>0.005300432332514467</v>
       </c>
       <c r="K11">
-        <v>0.03553689172247339</v>
+        <v>0.03824684068208788</v>
       </c>
       <c r="L11">
-        <v>0.009855066471985743</v>
+        <v>0.0123146241866996</v>
       </c>
       <c r="M11">
-        <v>0.009243385297843723</v>
+        <v>0.009249036957532925</v>
       </c>
       <c r="N11">
-        <v>0.0001290526818862546</v>
+        <v>0.0001311282225077526</v>
       </c>
       <c r="O11">
-        <v>0.0002630392420547159</v>
+        <v>0.0002672145340061836</v>
       </c>
       <c r="P11">
-        <v>7.407541740862767E-05</v>
+        <v>7.403045868906234E-05</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.09733745981196563</v>
+        <v>0.1051422948085278</v>
       </c>
       <c r="C12">
-        <v>0.09798677277405626</v>
+        <v>0.1055092362527415</v>
       </c>
       <c r="D12">
-        <v>0.03844193346485969</v>
+        <v>0.0403003909892747</v>
       </c>
       <c r="E12">
-        <v>0.02893619427869669</v>
+        <v>0.03099998277774876</v>
       </c>
       <c r="F12">
-        <v>0.01214893302070078</v>
+        <v>0.0118904254603894</v>
       </c>
       <c r="G12">
-        <v>0.00194158056014311</v>
+        <v>0.005671617303913191</v>
       </c>
       <c r="H12">
-        <v>0.03374157261832563</v>
+        <v>0.03617174501014522</v>
       </c>
       <c r="I12">
-        <v>0.01971088656542573</v>
+        <v>0.0225437221629948</v>
       </c>
       <c r="J12">
-        <v>0.007527194287631167</v>
+        <v>0.007133869036549562</v>
       </c>
       <c r="K12">
-        <v>0.04831808320282777</v>
+        <v>0.05424030648033043</v>
       </c>
       <c r="L12">
-        <v>0.01311950209346559</v>
+        <v>0.01685771442014103</v>
       </c>
       <c r="M12">
-        <v>0.01230534741374809</v>
+        <v>0.01231708734849945</v>
       </c>
       <c r="N12">
-        <v>0.0001264373995170359</v>
+        <v>0.0001291725469558955</v>
       </c>
       <c r="O12">
-        <v>0.0002575359743708936</v>
+        <v>0.0002630147603077849</v>
       </c>
       <c r="P12">
-        <v>7.357709801346382E-05</v>
+        <v>7.350732337122555E-05</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1177039307429002</v>
+        <v>0.1233701704797987</v>
       </c>
       <c r="C13">
-        <v>0.1183740626644167</v>
+        <v>0.1224923164723017</v>
       </c>
       <c r="D13">
-        <v>0.04611904494509513</v>
+        <v>0.04756134520195521</v>
       </c>
       <c r="E13">
-        <v>0.03462987869089699</v>
+        <v>0.03638762538842685</v>
       </c>
       <c r="F13">
-        <v>0.01467890707067652</v>
+        <v>0.01427944102992144</v>
       </c>
       <c r="G13">
-        <v>0.002345396004884598</v>
+        <v>0.004701880283855644</v>
       </c>
       <c r="H13">
-        <v>0.0406037878351375</v>
+        <v>0.04208721863586408</v>
       </c>
       <c r="I13">
-        <v>0.02359958172614537</v>
+        <v>0.02564276601701679</v>
       </c>
       <c r="J13">
-        <v>0.008862914781121733</v>
+        <v>0.008578149316372987</v>
       </c>
       <c r="K13">
-        <v>0.05864698864697949</v>
+        <v>0.06173327954998442</v>
       </c>
       <c r="L13">
-        <v>0.01601864446729622</v>
+        <v>0.02355828161486549</v>
       </c>
       <c r="M13">
-        <v>0.0147007415040016</v>
+        <v>0.01472991544896939</v>
       </c>
       <c r="N13">
-        <v>0.0001243220782037587</v>
+        <v>0.0001277856126606416</v>
       </c>
       <c r="O13">
-        <v>0.0002530811574772687</v>
+        <v>0.0002600998079452932</v>
       </c>
       <c r="P13">
-        <v>7.316678606160575E-05</v>
+        <v>7.302248354037988E-05</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1191951197411917</v>
+        <v>0.125354962582538</v>
       </c>
       <c r="C14">
-        <v>0.1198686912164777</v>
+        <v>0.1242909447596533</v>
       </c>
       <c r="D14">
-        <v>0.04645037410291313</v>
+        <v>0.04884898130231188</v>
       </c>
       <c r="E14">
-        <v>0.03477824263447695</v>
+        <v>0.03750130736256499</v>
       </c>
       <c r="F14">
-        <v>0.01491218619926229</v>
+        <v>0.01450209791950948</v>
       </c>
       <c r="G14">
-        <v>0.002382688589423297</v>
+        <v>0.004738540439657575</v>
       </c>
       <c r="H14">
-        <v>0.04144403062764149</v>
+        <v>0.04213725918455467</v>
       </c>
       <c r="I14">
-        <v>0.0241731361215379</v>
+        <v>0.02541556458029461</v>
       </c>
       <c r="J14">
-        <v>0.009202454413198448</v>
+        <v>0.008712060285527201</v>
       </c>
       <c r="K14">
-        <v>0.05958444077670695</v>
+        <v>0.06204763254327215</v>
       </c>
       <c r="L14">
-        <v>0.0160798477644401</v>
+        <v>0.02226986072661725</v>
       </c>
       <c r="M14">
-        <v>0.01492033592611502</v>
+        <v>0.01494456507513309</v>
       </c>
       <c r="N14">
-        <v>0.0001241469341098817</v>
+        <v>0.0001276432756557087</v>
       </c>
       <c r="O14">
-        <v>0.0002527022549279098</v>
+        <v>0.0002598241421352473</v>
       </c>
       <c r="P14">
-        <v>7.313229806094251E-05</v>
+        <v>7.3014223669354E-05</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1178492415746915</v>
+        <v>0.1247649948859078</v>
       </c>
       <c r="C15">
-        <v>0.1185205893909659</v>
+        <v>0.1246327131379051</v>
       </c>
       <c r="D15">
-        <v>0.04585662940304791</v>
+        <v>0.0479040578287039</v>
       </c>
       <c r="E15">
-        <v>0.0343341732561039</v>
+        <v>0.03669422961092297</v>
       </c>
       <c r="F15">
-        <v>0.01472115998522861</v>
+        <v>0.01432573946054949</v>
       </c>
       <c r="G15">
-        <v>0.002352164289714932</v>
+        <v>0.00608351401496074</v>
       </c>
       <c r="H15">
-        <v>0.04091086507510973</v>
+        <v>0.04241252037995109</v>
       </c>
       <c r="I15">
-        <v>0.02386423007897512</v>
+        <v>0.02591792147681858</v>
       </c>
       <c r="J15">
-        <v>0.009086471565676803</v>
+        <v>0.008607081616212786</v>
       </c>
       <c r="K15">
-        <v>0.05862648241493338</v>
+        <v>0.06347736350749772</v>
       </c>
       <c r="L15">
-        <v>0.01623658626511357</v>
+        <v>0.0232191527574995</v>
       </c>
       <c r="M15">
-        <v>0.01474237987269506</v>
+        <v>0.0147694575760048</v>
       </c>
       <c r="N15">
-        <v>0.0001242988253500039</v>
+        <v>0.0001277156132978063</v>
       </c>
       <c r="O15">
-        <v>0.0002530255837652465</v>
+        <v>0.0002599282173279701</v>
       </c>
       <c r="P15">
-        <v>7.315647759402776E-05</v>
+        <v>7.302291954454451E-05</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1173949031291493</v>
+        <v>0.1252991717441404</v>
       </c>
       <c r="C16">
-        <v>0.1180682142179945</v>
+        <v>0.1245986099402217</v>
       </c>
       <c r="D16">
-        <v>0.04583085545378908</v>
+        <v>0.04749504360911175</v>
       </c>
       <c r="E16">
-        <v>0.03431488796501312</v>
+        <v>0.03628870664751581</v>
       </c>
       <c r="F16">
-        <v>0.01471288124819306</v>
+        <v>0.01432082336789029</v>
       </c>
       <c r="G16">
-        <v>0.002350843014575769</v>
+        <v>0.005885298258243798</v>
       </c>
       <c r="H16">
-        <v>0.04088770899664749</v>
+        <v>0.04297653884025633</v>
       </c>
       <c r="I16">
-        <v>0.02385081226741723</v>
+        <v>0.02650319952580589</v>
       </c>
       <c r="J16">
-        <v>0.009081416402552864</v>
+        <v>0.008604804073786958</v>
       </c>
       <c r="K16">
-        <v>0.05859318370600083</v>
+        <v>0.06384955186630774</v>
       </c>
       <c r="L16">
-        <v>0.01588290740108058</v>
+        <v>0.02264099545262299</v>
       </c>
       <c r="M16">
-        <v>0.01473565712451135</v>
+        <v>0.01476178798165018</v>
       </c>
       <c r="N16">
-        <v>0.0001243247476517941</v>
+        <v>0.0001277143431097729</v>
       </c>
       <c r="O16">
-        <v>0.0002530789515422115</v>
+        <v>0.0002599050959388875</v>
       </c>
       <c r="P16">
-        <v>7.316397399160666E-05</v>
+        <v>7.303500633743456E-05</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1178047595745121</v>
+        <v>0.1281851479033191</v>
       </c>
       <c r="C17">
-        <v>0.1184749193573941</v>
+        <v>0.1270876072878757</v>
       </c>
       <c r="D17">
-        <v>0.04615939239573542</v>
+        <v>0.04706018803495826</v>
       </c>
       <c r="E17">
-        <v>0.03466006256027</v>
+        <v>0.03586457032915409</v>
       </c>
       <c r="F17">
-        <v>0.01469187793856345</v>
+        <v>0.01430668858313966</v>
       </c>
       <c r="G17">
-        <v>0.002347409161253394</v>
+        <v>0.007885740246125565</v>
       </c>
       <c r="H17">
-        <v>0.04063892865959178</v>
+        <v>0.04391838337220023</v>
       </c>
       <c r="I17">
-        <v>0.0236199358106367</v>
+        <v>0.02748288346505972</v>
       </c>
       <c r="J17">
-        <v>0.008870547579154228</v>
+        <v>0.008598680123858201</v>
       </c>
       <c r="K17">
-        <v>0.05831516885860519</v>
+        <v>0.06676531877424392</v>
       </c>
       <c r="L17">
-        <v>0.01585793809079595</v>
+        <v>0.02166859512366925</v>
       </c>
       <c r="M17">
-        <v>0.01471224240189893</v>
+        <v>0.01473460701706698</v>
       </c>
       <c r="N17">
-        <v>0.0001243115689094332</v>
+        <v>0.0001276447097037248</v>
       </c>
       <c r="O17">
-        <v>0.0002530652283081795</v>
+        <v>0.0002596922390123691</v>
       </c>
       <c r="P17">
-        <v>7.316798481924135E-05</v>
+        <v>7.305739653365311E-05</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.09844290383206994</v>
+        <v>0.1093720933692806</v>
       </c>
       <c r="C18">
-        <v>0.09909215761848465</v>
+        <v>0.1084093257543501</v>
       </c>
       <c r="D18">
-        <v>0.03860204829495511</v>
+        <v>0.04066053966778376</v>
       </c>
       <c r="E18">
-        <v>0.02900692583451369</v>
+        <v>0.03127014979650074</v>
       </c>
       <c r="F18">
-        <v>0.01226276461556299</v>
+        <v>0.012005136021261</v>
       </c>
       <c r="G18">
-        <v>0.001959740637667619</v>
+        <v>0.007078631220092398</v>
       </c>
       <c r="H18">
-        <v>0.03387256898817295</v>
+        <v>0.03707390320371851</v>
       </c>
       <c r="I18">
-        <v>0.01970143414728774</v>
+        <v>0.02332448549131285</v>
       </c>
       <c r="J18">
-        <v>0.007401286863781643</v>
+        <v>0.007204446009554625</v>
       </c>
       <c r="K18">
-        <v>0.0485848037730211</v>
+        <v>0.05666162448713468</v>
       </c>
       <c r="L18">
-        <v>0.01323494816839315</v>
+        <v>0.02129605268447124</v>
       </c>
       <c r="M18">
-        <v>0.01241363320927955</v>
+        <v>0.01243948323700911</v>
       </c>
       <c r="N18">
-        <v>0.0001263353302824092</v>
+        <v>0.0001290330877213627</v>
       </c>
       <c r="O18">
-        <v>0.0002573252106441037</v>
+        <v>0.0002626819149918967</v>
       </c>
       <c r="P18">
-        <v>7.355910305930269E-05</v>
+        <v>7.340700784973818E-05</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06484319718756733</v>
+        <v>0.08153175513185656</v>
       </c>
       <c r="C19">
-        <v>0.06542422271516275</v>
+        <v>0.07941407216804834</v>
       </c>
       <c r="D19">
-        <v>0.02521290589868276</v>
+        <v>0.02948102539585032</v>
       </c>
       <c r="E19">
-        <v>0.01889844419476851</v>
+        <v>0.02324389393950296</v>
       </c>
       <c r="F19">
-        <v>0.00808163466544546</v>
+        <v>0.007988181000471479</v>
       </c>
       <c r="G19">
-        <v>0.001292866065110742</v>
+        <v>0.007178347835570533</v>
       </c>
       <c r="H19">
-        <v>0.02224372158747727</v>
+        <v>0.02718771467933922</v>
       </c>
       <c r="I19">
-        <v>0.01296827717237096</v>
+        <v>0.01815560261788088</v>
       </c>
       <c r="J19">
-        <v>0.004877572795502295</v>
+        <v>0.004778177173762058</v>
       </c>
       <c r="K19">
-        <v>0.03204780489511286</v>
+        <v>0.04262163608159755</v>
       </c>
       <c r="L19">
-        <v>0.009051192992584204</v>
+        <v>0.02022111771677308</v>
       </c>
       <c r="M19">
-        <v>0.008328926141759297</v>
+        <v>0.008352457172052762</v>
       </c>
       <c r="N19">
-        <v>0.000129761651566815</v>
+        <v>0.0001312685157494584</v>
       </c>
       <c r="O19">
-        <v>0.0002645320115687198</v>
+        <v>0.0002674249372256117</v>
       </c>
       <c r="P19">
-        <v>7.421721406060053E-05</v>
+        <v>7.40096844333865E-05</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.05681534766988509</v>
+        <v>0.0682411018461852</v>
       </c>
       <c r="C20">
-        <v>0.05735945592554729</v>
+        <v>0.06701464180807506</v>
       </c>
       <c r="D20">
-        <v>0.02225649932992793</v>
+        <v>0.02560605072561193</v>
       </c>
       <c r="E20">
-        <v>0.016784113998214</v>
+        <v>0.02019561360298935</v>
       </c>
       <c r="F20">
-        <v>0.007009200259149507</v>
+        <v>0.006934371106207333</v>
       </c>
       <c r="G20">
-        <v>0.001121865360260789</v>
+        <v>0.005431040523571076</v>
       </c>
       <c r="H20">
-        <v>0.01944552824208204</v>
+        <v>0.02252694011627901</v>
       </c>
       <c r="I20">
-        <v>0.01143084747689338</v>
+        <v>0.01469081021602109</v>
       </c>
       <c r="J20">
-        <v>0.004420788934432569</v>
+        <v>0.004141386817845268</v>
       </c>
       <c r="K20">
-        <v>0.02813373332905112</v>
+        <v>0.03509321321964196</v>
       </c>
       <c r="L20">
-        <v>0.008077093590196831</v>
+        <v>0.01713952022233326</v>
       </c>
       <c r="M20">
-        <v>0.00725406343017514</v>
+        <v>0.007270404659658464</v>
       </c>
       <c r="N20">
-        <v>0.0001305949338629853</v>
+        <v>0.0001319922667577247</v>
       </c>
       <c r="O20">
-        <v>0.0002662857360325753</v>
+        <v>0.0002690311594989406</v>
       </c>
       <c r="P20">
-        <v>7.4382114112528E-05</v>
+        <v>7.421636088429236E-05</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.04693542857841336</v>
+        <v>0.0633140907703503</v>
       </c>
       <c r="C21">
-        <v>0.04743875509500102</v>
+        <v>0.06214201491853935</v>
       </c>
       <c r="D21">
-        <v>0.01833005999297546</v>
+        <v>0.02330595498484538</v>
       </c>
       <c r="E21">
-        <v>0.01375387609911258</v>
+        <v>0.01876735036194135</v>
       </c>
       <c r="F21">
-        <v>0.005867276045806563</v>
+        <v>0.005824351848075122</v>
       </c>
       <c r="G21">
-        <v>0.0009398129459618425</v>
+        <v>0.007391497669489902</v>
       </c>
       <c r="H21">
-        <v>0.01627463626051213</v>
+        <v>0.02019973813590183</v>
       </c>
       <c r="I21">
-        <v>0.009594555490901</v>
+        <v>0.01366774668504084</v>
       </c>
       <c r="J21">
-        <v>0.003732630246703426</v>
+        <v>0.003473392049033792</v>
       </c>
       <c r="K21">
-        <v>0.02339326070511741</v>
+        <v>0.03355457604781539</v>
       </c>
       <c r="L21">
-        <v>0.006676743476425826</v>
+        <v>0.01824891163413902</v>
       </c>
       <c r="M21">
-        <v>0.006101592452877895</v>
+        <v>0.00611915605453292</v>
       </c>
       <c r="N21">
-        <v>0.000131541804507628</v>
+        <v>0.0001325015881684548</v>
       </c>
       <c r="O21">
-        <v>0.0002682764502498639</v>
+        <v>0.0002700870643949195</v>
       </c>
       <c r="P21">
-        <v>7.456247354819372E-05</v>
+        <v>7.435062845653641E-05</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.04359890576733012</v>
+        <v>0.05478064556396699</v>
       </c>
       <c r="C22">
-        <v>0.04407966757570368</v>
+        <v>0.05377160937565791</v>
       </c>
       <c r="D22">
-        <v>0.01721748025285889</v>
+        <v>0.02103554804011556</v>
       </c>
       <c r="E22">
-        <v>0.01296985787001897</v>
+        <v>0.01682372727217037</v>
       </c>
       <c r="F22">
-        <v>0.005448737095347317</v>
+        <v>0.005407046657382641</v>
       </c>
       <c r="G22">
-        <v>0.0008730784577115582</v>
+        <v>0.0053710118035095</v>
       </c>
       <c r="H22">
-        <v>0.01511296607390038</v>
+        <v>0.01697481213188953</v>
       </c>
       <c r="I22">
-        <v>0.00892182119054746</v>
+        <v>0.01088799311396371</v>
       </c>
       <c r="J22">
-        <v>0.00348067457143449</v>
+        <v>0.003221201215500809</v>
       </c>
       <c r="K22">
-        <v>0.02172496462800463</v>
+        <v>0.0278527937503779</v>
       </c>
       <c r="L22">
-        <v>0.006222778131365411</v>
+        <v>0.01585956362962579</v>
       </c>
       <c r="M22">
-        <v>0.005675652531885528</v>
+        <v>0.005689085695193291</v>
       </c>
       <c r="N22">
-        <v>0.000131871986480092</v>
+        <v>0.0001328779311229122</v>
       </c>
       <c r="O22">
-        <v>0.0002689751039866633</v>
+        <v>0.0002709600429016241</v>
       </c>
       <c r="P22">
-        <v>7.462726264039137E-05</v>
+        <v>7.445296961266362E-05</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.04266225022547473</v>
+        <v>0.05250561404065743</v>
       </c>
       <c r="C23">
-        <v>0.04313268774431645</v>
+        <v>0.05110935558436009</v>
       </c>
       <c r="D23">
-        <v>0.01715447479214942</v>
+        <v>0.01925841177881425</v>
       </c>
       <c r="E23">
-        <v>0.01301781039795442</v>
+        <v>0.01515622993857177</v>
       </c>
       <c r="F23">
-        <v>0.005307617554458563</v>
+        <v>0.005266072482578362</v>
       </c>
       <c r="G23">
-        <v>0.0008623013621899729</v>
+        <v>0.00457803844997149</v>
       </c>
       <c r="H23">
-        <v>0.01454112063201771</v>
+        <v>0.01713938586305371</v>
       </c>
       <c r="I23">
-        <v>0.008508982021864417</v>
+        <v>0.01122857839665066</v>
       </c>
       <c r="J23">
-        <v>0.003207725355268143</v>
+        <v>0.003136697914452604</v>
       </c>
       <c r="K23">
-        <v>0.02097852717253597</v>
+        <v>0.02709331976548961</v>
       </c>
       <c r="L23">
-        <v>0.00624128294447595</v>
+        <v>0.01321691866376312</v>
       </c>
       <c r="M23">
-        <v>0.005531482648580483</v>
+        <v>0.005540847837428221</v>
       </c>
       <c r="N23">
-        <v>0.0001319725805952899</v>
+        <v>0.000133002366768885</v>
       </c>
       <c r="O23">
-        <v>0.0002691991661670869</v>
+        <v>0.0002711975353520234</v>
       </c>
       <c r="P23">
-        <v>7.464605769500148E-05</v>
+        <v>7.452129981171976E-05</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03969401074425189</v>
+        <v>0.04520336237452877</v>
       </c>
       <c r="C24">
-        <v>0.04014334120550188</v>
+        <v>0.04453908425177393</v>
       </c>
       <c r="D24">
-        <v>0.01606784931591839</v>
+        <v>0.01685234413111085</v>
       </c>
       <c r="E24">
-        <v>0.01220560239569153</v>
+        <v>0.01302190577885298</v>
       </c>
       <c r="F24">
-        <v>0.004957855480042131</v>
+        <v>0.004918356344783519</v>
       </c>
       <c r="G24">
-        <v>0.0008412843066395707</v>
+        <v>0.002813321914970417</v>
       </c>
       <c r="H24">
-        <v>0.01375085608398539</v>
+        <v>0.01543196221501532</v>
       </c>
       <c r="I24">
-        <v>0.008132998811769798</v>
+        <v>0.009909536111497537</v>
       </c>
       <c r="J24">
-        <v>0.003185374204916584</v>
+        <v>0.00292729118071061</v>
       </c>
       <c r="K24">
-        <v>0.01958629019408989</v>
+        <v>0.02325695915700668</v>
       </c>
       <c r="L24">
-        <v>0.005688351290363179</v>
+        <v>0.009459763678568196</v>
       </c>
       <c r="M24">
-        <v>0.005174150168170683</v>
+        <v>0.005178824809846869</v>
       </c>
       <c r="N24">
-        <v>0.0001322567562667339</v>
+        <v>0.0001333065645192308</v>
       </c>
       <c r="O24">
-        <v>0.0002697944772947412</v>
+        <v>0.000271868306873426</v>
       </c>
       <c r="P24">
-        <v>7.47030358210617E-05</v>
+        <v>7.463641028379429E-05</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.03788097383823614</v>
+        <v>0.04076527376252918</v>
       </c>
       <c r="C25">
-        <v>0.03832469468539071</v>
+        <v>0.04066673830618379</v>
       </c>
       <c r="D25">
-        <v>0.01501665857701061</v>
+        <v>0.01580302958563519</v>
       </c>
       <c r="E25">
-        <v>0.01127770518431228</v>
+        <v>0.01209492940769064</v>
       </c>
       <c r="F25">
-        <v>0.004800288775130362</v>
+        <v>0.004761868943574644</v>
       </c>
       <c r="G25">
-        <v>0.0008330090713674435</v>
+        <v>0.002056397683522361</v>
       </c>
       <c r="H25">
-        <v>0.01331426051568793</v>
+        <v>0.01372084941184397</v>
       </c>
       <c r="I25">
-        <v>0.007880154982955058</v>
+        <v>0.008347952890558553</v>
       </c>
       <c r="J25">
-        <v>0.003090740055681167</v>
+        <v>0.002832807129478934</v>
       </c>
       <c r="K25">
-        <v>0.01895980084502903</v>
+        <v>0.02058938516905797</v>
       </c>
       <c r="L25">
-        <v>0.005346136865321651</v>
+        <v>0.007820746904285355</v>
       </c>
       <c r="M25">
-        <v>0.005013684665593314</v>
+        <v>0.005016653008472653</v>
       </c>
       <c r="N25">
-        <v>0.0001324096064943143</v>
+        <v>0.0001334651368725395</v>
       </c>
       <c r="O25">
-        <v>0.0002701069702430899</v>
+        <v>0.0002722425792987059</v>
       </c>
       <c r="P25">
-        <v>7.473019531846173E-05</v>
+        <v>7.468652200022405E-05</v>
       </c>
     </row>
   </sheetData>
